--- a/fML기초/99_과제/2_다나와제품_크롤링/files/3_2_danawa_data_final.xlsx
+++ b/fML기초/99_과제/2_다나와제품_크롤링/files/3_2_danawa_data_final.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="409">
   <si>
     <t>카테고리</t>
   </si>
@@ -37,931 +37,1210 @@
     <t>핸디/스틱청소기</t>
   </si>
   <si>
+    <t>LG전자</t>
+  </si>
+  <si>
+    <t>다이슨</t>
+  </si>
+  <si>
+    <t>샤오미</t>
+  </si>
+  <si>
+    <t>원더스리빙</t>
+  </si>
+  <si>
     <t>델로라</t>
   </si>
   <si>
-    <t>원더스리빙</t>
-  </si>
-  <si>
-    <t>샤오미</t>
-  </si>
-  <si>
-    <t>LG전자</t>
-  </si>
-  <si>
-    <t>다이슨</t>
+    <t>일렉트로룩스</t>
   </si>
   <si>
     <t>삼성전자</t>
   </si>
   <si>
-    <t>일렉트로룩스</t>
-  </si>
-  <si>
     <t>DIBEA</t>
   </si>
   <si>
+    <t>신일산업</t>
+  </si>
+  <si>
+    <t>ABKO</t>
+  </si>
+  <si>
+    <t>아이룸</t>
+  </si>
+  <si>
+    <t>블랙앤데커</t>
+  </si>
+  <si>
     <t>무궁화전자</t>
   </si>
   <si>
-    <t>ABKO</t>
+    <t>캐치웰</t>
+  </si>
+  <si>
+    <t>기펠</t>
+  </si>
+  <si>
+    <t>EUP</t>
+  </si>
+  <si>
+    <t>한샘</t>
   </si>
   <si>
     <t>보쉬</t>
   </si>
   <si>
-    <t>아이룸</t>
-  </si>
-  <si>
-    <t>블랙앤데커</t>
-  </si>
-  <si>
-    <t>캐치웰</t>
-  </si>
-  <si>
-    <t>EUP</t>
+    <t>유니맥스</t>
+  </si>
+  <si>
+    <t>로보락</t>
+  </si>
+  <si>
+    <t>디스코즈</t>
   </si>
   <si>
     <t>모온</t>
   </si>
   <si>
-    <t>유니맥스</t>
+    <t>테팔</t>
+  </si>
+  <si>
+    <t>티피오스</t>
+  </si>
+  <si>
+    <t>일럭스고</t>
+  </si>
+  <si>
+    <t>대웅모닝컴</t>
+  </si>
+  <si>
+    <t>저스트원</t>
+  </si>
+  <si>
+    <t>마끼다</t>
+  </si>
+  <si>
+    <t>홈마블</t>
+  </si>
+  <si>
+    <t>스위스밀리터리</t>
+  </si>
+  <si>
+    <t>이마트</t>
+  </si>
+  <si>
+    <t>에이스전자</t>
+  </si>
+  <si>
+    <t>롯데알미늄</t>
   </si>
   <si>
     <t>제로홈</t>
   </si>
   <si>
-    <t>티피오스</t>
-  </si>
-  <si>
-    <t>일럭스고</t>
-  </si>
-  <si>
-    <t>신일산업</t>
+    <t>툴앤툴</t>
+  </si>
+  <si>
+    <t>아낙</t>
+  </si>
+  <si>
+    <t>BDC</t>
+  </si>
+  <si>
+    <t>쿠첸</t>
+  </si>
+  <si>
+    <t>오아</t>
+  </si>
+  <si>
+    <t>흥진테크</t>
+  </si>
+  <si>
+    <t>리빙코리아</t>
+  </si>
+  <si>
+    <t>아이닉</t>
   </si>
   <si>
     <t>듀플렉스</t>
   </si>
   <si>
-    <t>테팔</t>
-  </si>
-  <si>
-    <t>한샘</t>
-  </si>
-  <si>
-    <t>리빙코리아</t>
-  </si>
-  <si>
-    <t>에이스전자</t>
+    <t>스윙</t>
+  </si>
+  <si>
+    <t>이스타</t>
+  </si>
+  <si>
+    <t>인빅터스</t>
+  </si>
+  <si>
+    <t>이나프</t>
+  </si>
+  <si>
+    <t>신일</t>
+  </si>
+  <si>
+    <t>USB</t>
+  </si>
+  <si>
+    <t>아토케어</t>
   </si>
   <si>
     <t>보만</t>
   </si>
   <si>
-    <t>툴앤툴</t>
+    <t>홍진테크</t>
+  </si>
+  <si>
+    <t>레이캅</t>
+  </si>
+  <si>
+    <t>마이프랜드</t>
+  </si>
+  <si>
+    <t>라우쉬</t>
+  </si>
+  <si>
+    <t>비브르</t>
+  </si>
+  <si>
+    <t>바덴</t>
+  </si>
+  <si>
+    <t>메가비타</t>
+  </si>
+  <si>
+    <t>POODA</t>
   </si>
   <si>
     <t>아이코넬</t>
   </si>
   <si>
-    <t>JDL</t>
-  </si>
-  <si>
-    <t>대웅모닝컴</t>
-  </si>
-  <si>
-    <t>홈마블</t>
-  </si>
-  <si>
-    <t>이스타</t>
-  </si>
-  <si>
-    <t>신일</t>
-  </si>
-  <si>
-    <t>저스트원</t>
-  </si>
-  <si>
-    <t>제니퍼룸</t>
-  </si>
-  <si>
-    <t>스위스밀리터리</t>
+    <t>지웰</t>
+  </si>
+  <si>
+    <t>리락쿠마</t>
+  </si>
+  <si>
+    <t>필립스</t>
+  </si>
+  <si>
+    <t>샤크</t>
+  </si>
+  <si>
+    <t>루베크</t>
+  </si>
+  <si>
+    <t>솔리스</t>
+  </si>
+  <si>
+    <t>트윈버드</t>
+  </si>
+  <si>
+    <t>아이프리</t>
+  </si>
+  <si>
+    <t>비바</t>
+  </si>
+  <si>
+    <t>스마트에버</t>
+  </si>
+  <si>
+    <t>컴포트</t>
+  </si>
+  <si>
+    <t>이노뷰</t>
+  </si>
+  <si>
+    <t>워니코프</t>
+  </si>
+  <si>
+    <t>보랄</t>
+  </si>
+  <si>
+    <t>휴스톰</t>
+  </si>
+  <si>
+    <t>라이프썸</t>
+  </si>
+  <si>
+    <t>일렉자이트</t>
   </si>
   <si>
     <t>이노크아든</t>
   </si>
   <si>
-    <t>LOFANS</t>
-  </si>
-  <si>
-    <t>킴스아이엔씨</t>
-  </si>
-  <si>
-    <t>퀸메이드</t>
-  </si>
-  <si>
-    <t>라이프썸</t>
-  </si>
-  <si>
-    <t>이나프</t>
-  </si>
-  <si>
-    <t>아토케어</t>
-  </si>
-  <si>
-    <t>아이닉</t>
-  </si>
-  <si>
-    <t>BSW</t>
-  </si>
-  <si>
-    <t>마끼다</t>
-  </si>
-  <si>
-    <t>홍진테크</t>
-  </si>
-  <si>
-    <t>라우쉬</t>
-  </si>
-  <si>
-    <t>아낙</t>
-  </si>
-  <si>
-    <t>수인</t>
-  </si>
-  <si>
-    <t>비바</t>
-  </si>
-  <si>
-    <t>필립스</t>
-  </si>
-  <si>
-    <t>지웰</t>
-  </si>
-  <si>
-    <t>기펠</t>
-  </si>
-  <si>
-    <t>보랄</t>
-  </si>
-  <si>
-    <t>코끼리</t>
-  </si>
-  <si>
-    <t>마이프랜드</t>
-  </si>
-  <si>
-    <t>비브르</t>
-  </si>
-  <si>
-    <t>BDC</t>
+    <t>코드제로 A9S A9700</t>
+  </si>
+  <si>
+    <t>V8 플러피</t>
+  </si>
+  <si>
+    <t>드리미 V10</t>
+  </si>
+  <si>
+    <t>원더스 다이나킹 Z9</t>
   </si>
   <si>
     <t>V11 파워 300W</t>
   </si>
   <si>
-    <t>다이나킹 Z9</t>
-  </si>
-  <si>
-    <t>드리미 V10</t>
+    <t>ZB3302AK</t>
+  </si>
+  <si>
+    <t>코드제로 A9S A9300</t>
+  </si>
+  <si>
+    <t>V11 컴플리트</t>
+  </si>
+  <si>
+    <t>제트 VS20R9078S2</t>
+  </si>
+  <si>
+    <t>코드제로 A9S A9570</t>
+  </si>
+  <si>
+    <t>에르고라피도 프로 플러스 ZB3113AK</t>
+  </si>
+  <si>
+    <t>제트 VS20R9043SA</t>
+  </si>
+  <si>
+    <t>코드제로 A9S A9470</t>
+  </si>
+  <si>
+    <t>V11 220 에어와트 CF+</t>
+  </si>
+  <si>
+    <t>제트 VS20T9278S3</t>
+  </si>
+  <si>
+    <t>코드제로 A9S A9500</t>
+  </si>
+  <si>
+    <t>퓨어 Q9 PQ91-3EM</t>
+  </si>
+  <si>
+    <t>SHUNZAO Z11 PRO</t>
+  </si>
+  <si>
+    <t>DW200</t>
+  </si>
+  <si>
+    <t>V10 카본파이버</t>
+  </si>
+  <si>
+    <t>코드제로 A9 A938</t>
+  </si>
+  <si>
+    <t>D18</t>
+  </si>
+  <si>
+    <t>드리미 V9</t>
+  </si>
+  <si>
+    <t>퓨어 Q9 PQ91-2OG</t>
+  </si>
+  <si>
+    <t>제트 VS20T9279S6CS</t>
+  </si>
+  <si>
+    <t>코드제로 A9 A947</t>
+  </si>
+  <si>
+    <t>제트 VS19R1004BF</t>
+  </si>
+  <si>
+    <t>SHUNZAO Z11</t>
+  </si>
+  <si>
+    <t>로이드미 제로</t>
+  </si>
+  <si>
+    <t>V8 슬림 플러피+</t>
+  </si>
+  <si>
+    <t>뉴파워건 130</t>
+  </si>
+  <si>
+    <t>V8 앱솔루트</t>
+  </si>
+  <si>
+    <t>코드제로 A9 A958</t>
+  </si>
+  <si>
+    <t>드리미 V10P</t>
+  </si>
+  <si>
+    <t>제트 VS20T9278S3CS</t>
+  </si>
+  <si>
+    <t>SVC-650SG</t>
+  </si>
+  <si>
+    <t>드리미 V11</t>
+  </si>
+  <si>
+    <t>제트 VS20R9043QA</t>
+  </si>
+  <si>
+    <t>에르고라피도 파워프로 ZB3414AK</t>
+  </si>
+  <si>
+    <t>오엘라 네오스핀 OBC-AW09WH</t>
+  </si>
+  <si>
+    <t>NEW S9</t>
+  </si>
+  <si>
+    <t>코드제로 A9S A9400</t>
+  </si>
+  <si>
+    <t>AST-009</t>
+  </si>
+  <si>
+    <t>제트 VS15R8577S5</t>
+  </si>
+  <si>
+    <t>퓨어 F9 PF91-5EBF</t>
+  </si>
+  <si>
+    <t>제트 VS20R9078S3</t>
+  </si>
+  <si>
+    <t>코드제로 터보2.0 S87GMW</t>
   </si>
   <si>
     <t>코드제로 A9 A978</t>
   </si>
   <si>
-    <t>V11 220 에어와트 CF+</t>
-  </si>
-  <si>
-    <t>SHUNZAO Z11 PRO</t>
-  </si>
-  <si>
-    <t>제트 VS20R9078S2</t>
+    <t>코드제로 S86</t>
+  </si>
+  <si>
+    <t>PV1820BK</t>
+  </si>
+  <si>
+    <t>V10 모터헤드</t>
+  </si>
+  <si>
+    <t>V11 플러피</t>
+  </si>
+  <si>
+    <t>ZB6114</t>
+  </si>
+  <si>
+    <t>제트 VS20T9278S7</t>
+  </si>
+  <si>
+    <t>드리미 V8</t>
+  </si>
+  <si>
+    <t>바로바로 MC-B250</t>
+  </si>
+  <si>
+    <t>CV6</t>
+  </si>
+  <si>
+    <t>에이스 맥스</t>
+  </si>
+  <si>
+    <t>에르고라피도 플러스 ZB3105AK</t>
+  </si>
+  <si>
+    <t>V8 카본파이버</t>
+  </si>
+  <si>
+    <t>ZB3311</t>
+  </si>
+  <si>
+    <t>V8 앱솔루트 플러스</t>
+  </si>
+  <si>
+    <t>V8 플러피 프로</t>
+  </si>
+  <si>
+    <t>제트 VS20R9048SB</t>
+  </si>
+  <si>
+    <t>ZET-10</t>
+  </si>
+  <si>
+    <t>울트라파워 ZB5022</t>
+  </si>
+  <si>
+    <t>로이드미 F8</t>
+  </si>
+  <si>
+    <t>에르고라피도 ZB3111</t>
+  </si>
+  <si>
+    <t>V10 앱솔루트 플러스</t>
+  </si>
+  <si>
+    <t>TPD1810BGEXT</t>
+  </si>
+  <si>
+    <t>V8 앱솔루트 엑스트라</t>
+  </si>
+  <si>
+    <t>파워건 150</t>
+  </si>
+  <si>
+    <t>코드제로 A9 A950</t>
+  </si>
+  <si>
+    <t>코드제로 A9 A930</t>
+  </si>
+  <si>
+    <t>V7 플러피 플러스</t>
+  </si>
+  <si>
+    <t>코드제로 A9 A960</t>
+  </si>
+  <si>
+    <t>V8 플러피 헤파</t>
+  </si>
+  <si>
+    <t>SVC-8858PNX</t>
+  </si>
+  <si>
+    <t>V8 앱솔루트 프로</t>
+  </si>
+  <si>
+    <t>V8 모터헤드 헤파</t>
+  </si>
+  <si>
+    <t>VH806</t>
+  </si>
+  <si>
+    <t>울트라파워 ZB5021</t>
+  </si>
+  <si>
+    <t>퓨어 Q9 PQ91-3OB</t>
+  </si>
+  <si>
+    <t>코드제로 A9 A948</t>
+  </si>
+  <si>
+    <t>V008 프로</t>
+  </si>
+  <si>
+    <t>에르고라피도 ZB3104</t>
+  </si>
+  <si>
+    <t>뉴파워건 150</t>
+  </si>
+  <si>
+    <t>C17</t>
+  </si>
+  <si>
+    <t>HSBC-6000W</t>
+  </si>
+  <si>
+    <t>코드제로 A9 A940</t>
+  </si>
+  <si>
+    <t>V6 코드프리 플러스</t>
+  </si>
+  <si>
+    <t>GAS18V-1</t>
+  </si>
+  <si>
+    <t>VC-H22</t>
+  </si>
+  <si>
+    <t>UVC-1685A</t>
+  </si>
+  <si>
+    <t>H6</t>
+  </si>
+  <si>
+    <t>VC-H71</t>
+  </si>
+  <si>
+    <t>HANDY</t>
+  </si>
+  <si>
+    <t>에르고라피도 클래식 ZB3501EB</t>
+  </si>
+  <si>
+    <t>TSX-25000A</t>
+  </si>
+  <si>
+    <t>ZB3301</t>
+  </si>
+  <si>
+    <t>퓨어 Q9 PQ91-3BW</t>
+  </si>
+  <si>
+    <t>M500 퀀텀</t>
+  </si>
+  <si>
+    <t>에르고라피도 파워프로 ZB3411</t>
+  </si>
+  <si>
+    <t>파워스틱 VS60M6010KG</t>
+  </si>
+  <si>
+    <t>코드제로 A9S A9370</t>
+  </si>
+  <si>
+    <t>오비큠</t>
+  </si>
+  <si>
+    <t>PV1820CEXT</t>
+  </si>
+  <si>
+    <t>에르고라피도 파워프로 ZB3426BL</t>
+  </si>
+  <si>
+    <t>V11 컴플리트 엑스트라</t>
+  </si>
+  <si>
+    <t>UVC-1688</t>
+  </si>
+  <si>
+    <t>P20 MAX</t>
+  </si>
+  <si>
+    <t>에어포스 라이트 TY6545KL</t>
+  </si>
+  <si>
+    <t>디제로 D2</t>
+  </si>
+  <si>
+    <t>파워스틱 VS03R6523J2</t>
   </si>
   <si>
     <t>코드제로 A9 A951</t>
   </si>
   <si>
-    <t>V8 플러피</t>
-  </si>
-  <si>
-    <t>코드제로 A9 A938</t>
-  </si>
-  <si>
-    <t>ZB3302AK</t>
-  </si>
-  <si>
-    <t>코드제로 A9 A948</t>
-  </si>
-  <si>
-    <t>코드제로 A9 A958</t>
-  </si>
-  <si>
-    <t>SHUNZAO Z11</t>
-  </si>
-  <si>
-    <t>D18</t>
-  </si>
-  <si>
-    <t>제트 VS19R1004BF</t>
-  </si>
-  <si>
-    <t>드리미 V9</t>
-  </si>
-  <si>
-    <t>제트 VS20R9043SA</t>
-  </si>
-  <si>
-    <t>코드제로 A9 A947</t>
-  </si>
-  <si>
-    <t>바로바로 MC-B250</t>
-  </si>
-  <si>
-    <t>로이드미 제로</t>
-  </si>
-  <si>
-    <t>퓨어 Q9 PQ91-2OG</t>
-  </si>
-  <si>
-    <t>V8 슬림 플러피+</t>
-  </si>
-  <si>
-    <t>제트 VS20R9048SB</t>
-  </si>
-  <si>
-    <t>V10 카본파이버</t>
-  </si>
-  <si>
-    <t>V11 컴플리트</t>
-  </si>
-  <si>
-    <t>코드제로 A9S A9700</t>
-  </si>
-  <si>
-    <t>뉴파워건 130</t>
-  </si>
-  <si>
-    <t>오엘라 네오스핀 OBC-AW09WH</t>
-  </si>
-  <si>
-    <t>드리미 V10P</t>
-  </si>
-  <si>
-    <t>DW200</t>
-  </si>
-  <si>
-    <t>에르고라피도 프로 플러스 ZB3113AK</t>
-  </si>
-  <si>
-    <t>V11 플러피</t>
-  </si>
-  <si>
-    <t>드리미 V8</t>
-  </si>
-  <si>
-    <t>VC-H71</t>
+    <t>SVC-1019L</t>
+  </si>
+  <si>
+    <t>SVC-S4800SJ</t>
+  </si>
+  <si>
+    <t>제트 VS20T9222K2CS</t>
+  </si>
+  <si>
+    <t>DWVC-DC1630WS</t>
+  </si>
+  <si>
+    <t>제트 VS15R8547S1CW</t>
+  </si>
+  <si>
+    <t>SVC-PB195BUP</t>
+  </si>
+  <si>
+    <t>퓨어 Q9 PQ92-3OBF</t>
+  </si>
+  <si>
+    <t>D18 플러스</t>
+  </si>
+  <si>
+    <t>Z10 프로</t>
+  </si>
+  <si>
+    <t>라피도 ZB5106</t>
+  </si>
+  <si>
+    <t>X30</t>
+  </si>
+  <si>
+    <t>SN-XR330V</t>
+  </si>
+  <si>
+    <t>RQ40</t>
+  </si>
+  <si>
+    <t>퓨어 Q9 PQ92-3EMF</t>
+  </si>
+  <si>
+    <t>ALLNEW22000</t>
+  </si>
+  <si>
+    <t>PV1020</t>
+  </si>
+  <si>
+    <t>퓨어 F9 PF91-5OGF</t>
+  </si>
+  <si>
+    <t>DCL180Z</t>
+  </si>
+  <si>
+    <t>H80</t>
+  </si>
+  <si>
+    <t>제트 VS20T8282B2CS</t>
+  </si>
+  <si>
+    <t>드리미 T100</t>
+  </si>
+  <si>
+    <t>제트 VS20R9044SC</t>
+  </si>
+  <si>
+    <t>SMA-X22</t>
+  </si>
+  <si>
+    <t>제트 VS15R8577S5CW</t>
+  </si>
+  <si>
+    <t>V11 플러피 엑스트라</t>
+  </si>
+  <si>
+    <t>일렉트로맨 HS103</t>
+  </si>
+  <si>
+    <t>에르고라피도 파워프로 ZB3423BO</t>
+  </si>
+  <si>
+    <t>드리미 V10 프로</t>
+  </si>
+  <si>
+    <t>EPV1020BKA</t>
+  </si>
+  <si>
+    <t>에이스 K7</t>
+  </si>
+  <si>
+    <t>제트 VS15R8544S4</t>
+  </si>
+  <si>
+    <t>SVC-DC2200SK</t>
+  </si>
+  <si>
+    <t>NEW F7 플러스</t>
+  </si>
+  <si>
+    <t>VC-LSS95</t>
+  </si>
+  <si>
+    <t>LS292</t>
+  </si>
+  <si>
+    <t>S9 아쿠아</t>
+  </si>
+  <si>
+    <t>바로바로 MC-B100</t>
+  </si>
+  <si>
+    <t>VC-PS86</t>
+  </si>
+  <si>
+    <t>CX-1</t>
+  </si>
+  <si>
+    <t>S9</t>
+  </si>
+  <si>
+    <t>제트 VS15R8543S1</t>
+  </si>
+  <si>
+    <t>코드프리 P10</t>
+  </si>
+  <si>
+    <t>ANA-1930</t>
+  </si>
+  <si>
+    <t>H80BL</t>
+  </si>
+  <si>
+    <t>에어포스360 라이트 TY5516KJ</t>
+  </si>
+  <si>
+    <t>트리플블랙 Z5</t>
+  </si>
+  <si>
+    <t>V7 모터헤드</t>
+  </si>
+  <si>
+    <t>얼티메이트</t>
+  </si>
+  <si>
+    <t>GAS10.8V-LI</t>
+  </si>
+  <si>
+    <t>CVC-LH602W</t>
+  </si>
+  <si>
+    <t>OA-CL010</t>
+  </si>
+  <si>
+    <t>SGC-399AA</t>
+  </si>
+  <si>
+    <t>F20 프로</t>
+  </si>
+  <si>
+    <t>제트 VS20R9044SA</t>
+  </si>
+  <si>
+    <t>웰스톰 VC150</t>
+  </si>
+  <si>
+    <t>제트 VS20T9278S7CS</t>
+  </si>
+  <si>
+    <t>V11 토탈클린</t>
+  </si>
+  <si>
+    <t>i20</t>
+  </si>
+  <si>
+    <t>라피도 ZB6108</t>
+  </si>
+  <si>
+    <t>에르고라피도 플러스 ZB3106AK</t>
+  </si>
+  <si>
+    <t>ZB6106</t>
+  </si>
+  <si>
+    <t>하우스웰 NCI-74HVC</t>
+  </si>
+  <si>
+    <t>제트 VS15R8548S5</t>
+  </si>
+  <si>
+    <t>DP-485VC</t>
+  </si>
+  <si>
+    <t>퓨어 Q9 PQ92-3BWF</t>
+  </si>
+  <si>
+    <t>V7 플러피</t>
+  </si>
+  <si>
+    <t>파워스윙 SWING-8000</t>
+  </si>
+  <si>
+    <t>ZB3511DB</t>
+  </si>
+  <si>
+    <t>EST-VX100</t>
+  </si>
+  <si>
+    <t>X7</t>
+  </si>
+  <si>
+    <t>하이앤로우 K8</t>
+  </si>
+  <si>
+    <t>디어마 VC20S</t>
+  </si>
+  <si>
+    <t>VH-1600</t>
+  </si>
+  <si>
+    <t>로이드미 넥스 XCQ06RM</t>
+  </si>
+  <si>
+    <t>W20</t>
+  </si>
+  <si>
+    <t>UVC-1686A</t>
+  </si>
+  <si>
+    <t>D19 플러스</t>
+  </si>
+  <si>
+    <t>M500</t>
+  </si>
+  <si>
+    <t>SVC-ECO350</t>
+  </si>
+  <si>
+    <t>제트 VS20R9078S2CS</t>
+  </si>
+  <si>
+    <t>에르고라피도 ZB3323BO</t>
+  </si>
+  <si>
+    <t>ASC-079</t>
+  </si>
+  <si>
+    <t>파워스틱 VS60K6081KD</t>
+  </si>
+  <si>
+    <t>F20 맥스</t>
+  </si>
+  <si>
+    <t>원더스 다이나킹 Z7</t>
+  </si>
+  <si>
+    <t>에이스 프로</t>
+  </si>
+  <si>
+    <t>드리미 V9P</t>
+  </si>
+  <si>
+    <t>미니청소기</t>
+  </si>
+  <si>
+    <t>제트 VS20R9074S2</t>
+  </si>
+  <si>
+    <t>제트 VS15R8548S5CW</t>
+  </si>
+  <si>
+    <t>에르고라피도 ZB3325B</t>
+  </si>
+  <si>
+    <t>CX11</t>
+  </si>
+  <si>
+    <t>CL100DZ</t>
+  </si>
+  <si>
+    <t>에어포스 라이트 TY6547KM</t>
+  </si>
+  <si>
+    <t>제트 VS20T9248SB</t>
+  </si>
+  <si>
+    <t>V10 앱솔루트 엑스트라</t>
+  </si>
+  <si>
+    <t>퍼펙트 에브리원 EP HANARO-100</t>
+  </si>
+  <si>
+    <t>VX11</t>
+  </si>
+  <si>
+    <t>제트 VS20T9279S6</t>
+  </si>
+  <si>
+    <t>퓨어 F9 PF91-6XRF</t>
+  </si>
+  <si>
+    <t>A20</t>
+  </si>
+  <si>
+    <t>VC7210</t>
+  </si>
+  <si>
+    <t>에어슬림 SMA-BV2200</t>
+  </si>
+  <si>
+    <t>에어포스 라이트 TY6543KL</t>
+  </si>
+  <si>
+    <t>AT-H12V</t>
+  </si>
+  <si>
+    <t>ILVH-7000</t>
+  </si>
+  <si>
+    <t>TPV1820RAC</t>
+  </si>
+  <si>
+    <t>FG2020</t>
+  </si>
+  <si>
+    <t>PD1810BEXT</t>
+  </si>
+  <si>
+    <t>코드엑스</t>
+  </si>
+  <si>
+    <t>RHC-300</t>
+  </si>
+  <si>
+    <t>MF-7700V</t>
+  </si>
+  <si>
+    <t>PV1820C</t>
+  </si>
+  <si>
+    <t>V10 카본파이버 프로</t>
+  </si>
+  <si>
+    <t>DVJ315B</t>
+  </si>
+  <si>
+    <t>제트 VS20R9044SB</t>
+  </si>
+  <si>
+    <t>파워스틱 VS60M6010KP</t>
+  </si>
+  <si>
+    <t>LSBC-6000</t>
+  </si>
+  <si>
+    <t>V-S300C</t>
+  </si>
+  <si>
+    <t>DWVC-DC9180KP</t>
+  </si>
+  <si>
+    <t>에어포스360 TY7233KO</t>
+  </si>
+  <si>
+    <t>스톰파워 VE30</t>
+  </si>
+  <si>
+    <t>ILVH-7500</t>
+  </si>
+  <si>
+    <t>DK-4006</t>
+  </si>
+  <si>
+    <t>AVG-TK9400BT</t>
+  </si>
+  <si>
+    <t>SVC-750SG</t>
+  </si>
+  <si>
+    <t>SVC-C450KP</t>
+  </si>
+  <si>
+    <t>NEW X10 플러스</t>
+  </si>
+  <si>
+    <t>에르고라피도 ZB3324B</t>
+  </si>
+  <si>
+    <t>MV90</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>SVC-P950DY</t>
+  </si>
+  <si>
+    <t>T300</t>
+  </si>
+  <si>
+    <t>VC-K300W</t>
+  </si>
+  <si>
+    <t>에어포스 TY8479</t>
+  </si>
+  <si>
+    <t>VC-PS85</t>
+  </si>
+  <si>
+    <t>벤투스 아쿠아 미니</t>
+  </si>
+  <si>
+    <t>D-10</t>
+  </si>
+  <si>
+    <t>BBHL2181KR</t>
   </si>
   <si>
     <t>V10 플러피</t>
   </si>
   <si>
-    <t>제트 VS15R8577S5</t>
-  </si>
-  <si>
-    <t>V8 앱솔루트</t>
-  </si>
-  <si>
-    <t>V10 앱솔루트 플러스</t>
-  </si>
-  <si>
-    <t>제트 VS20R9078S3</t>
-  </si>
-  <si>
-    <t>로이드미 F8</t>
-  </si>
-  <si>
-    <t>M500 프로</t>
-  </si>
-  <si>
-    <t>V10 모터헤드</t>
-  </si>
-  <si>
-    <t>V8 카본파이버</t>
-  </si>
-  <si>
-    <t>GAS18V-1</t>
-  </si>
-  <si>
-    <t>퓨어 Q9 PQ91-3BW</t>
-  </si>
-  <si>
-    <t>에르고라피도 파워프로 ZB3414AK</t>
-  </si>
-  <si>
-    <t>AST-009</t>
-  </si>
-  <si>
-    <t>제트 VS20R9044SC</t>
-  </si>
-  <si>
-    <t>PV1820BK</t>
-  </si>
-  <si>
-    <t>코드제로 터보2.0 S87GMW</t>
-  </si>
-  <si>
-    <t>제트 VS20T9278S3</t>
-  </si>
-  <si>
-    <t>에이스 맥스</t>
-  </si>
-  <si>
-    <t>V7 플러피 플러스</t>
-  </si>
-  <si>
-    <t>V8 플러피 프로</t>
-  </si>
-  <si>
-    <t>코드제로 S86</t>
-  </si>
-  <si>
-    <t>CV6</t>
-  </si>
-  <si>
-    <t>V8 앱솔루트 엑스트라</t>
-  </si>
-  <si>
-    <t>PV1820CEXT</t>
-  </si>
-  <si>
-    <t>에르고라피도 플러스 ZB3105AK</t>
-  </si>
-  <si>
-    <t>V8 플러피 헤파</t>
-  </si>
-  <si>
-    <t>V8 모터헤드 헤파</t>
-  </si>
-  <si>
-    <t>V8 앱솔루트 프로</t>
-  </si>
-  <si>
-    <t>V8 앱솔루트 플러스</t>
-  </si>
-  <si>
-    <t>V008 프로</t>
-  </si>
-  <si>
-    <t>에르고라피도 파워프로 ZB3426BL</t>
-  </si>
-  <si>
-    <t>PDK-12000N</t>
-  </si>
-  <si>
-    <t>VH806</t>
-  </si>
-  <si>
-    <t>C17</t>
-  </si>
-  <si>
-    <t>파워건 150</t>
-  </si>
-  <si>
-    <t>NEW F7 플러스</t>
-  </si>
-  <si>
-    <t>코드제로 A9 A940</t>
-  </si>
-  <si>
-    <t>코드제로 A9 A950</t>
-  </si>
-  <si>
-    <t>코드제로 A9 A930</t>
-  </si>
-  <si>
-    <t>뉴파워건 150</t>
-  </si>
-  <si>
-    <t>울트라파워 ZB5022</t>
-  </si>
-  <si>
-    <t>X30</t>
-  </si>
-  <si>
-    <t>코드제로 A9 A960</t>
-  </si>
-  <si>
-    <t>울트라파워 ZB5021</t>
-  </si>
-  <si>
-    <t>에르고라피도 ZB3111</t>
-  </si>
-  <si>
-    <t>V6 코드프리 플러스</t>
-  </si>
-  <si>
-    <t>퓨어 Q9 PQ91-3OB</t>
-  </si>
-  <si>
-    <t>제트 VS20R9074S2</t>
-  </si>
-  <si>
-    <t>VX11</t>
-  </si>
-  <si>
-    <t>파워스틱 VS60K6081KC</t>
-  </si>
-  <si>
-    <t>오비큠</t>
-  </si>
-  <si>
-    <t>ZB6114</t>
-  </si>
-  <si>
-    <t>V11 컴플리트 엑스트라</t>
-  </si>
-  <si>
-    <t>UVC-1685A</t>
-  </si>
-  <si>
-    <t>퓨어 Q9 PQ91-3EM</t>
-  </si>
-  <si>
-    <t>ZB3301</t>
-  </si>
-  <si>
-    <t>파워스틱 VS60M6010KG</t>
+    <t>제트 VS20R9044SBCS</t>
+  </si>
+  <si>
+    <t>퓨어 F9 PF91-6BWF</t>
+  </si>
+  <si>
+    <t>SVC-1005NW</t>
+  </si>
+  <si>
+    <t>미니미니 청소기</t>
+  </si>
+  <si>
+    <t>DCL182ZW</t>
+  </si>
+  <si>
+    <t>스피드프로 맥스 FC6812/01</t>
+  </si>
+  <si>
+    <t>에르고라피도 파워프로 ZB3416AK</t>
+  </si>
+  <si>
+    <t>DWVC-AC800KP</t>
+  </si>
+  <si>
+    <t>디어마 CM1900</t>
+  </si>
+  <si>
+    <t>로이드미 F8E</t>
+  </si>
+  <si>
+    <t>DWV-DC520WS</t>
+  </si>
+  <si>
+    <t>GAS18V-LI</t>
+  </si>
+  <si>
+    <t>파워프로 ZB3424BL</t>
+  </si>
+  <si>
+    <t>에보파워플러스 WV260KR</t>
+  </si>
+  <si>
+    <t>AVG-LC9600BT</t>
+  </si>
+  <si>
+    <t>제트 VS15R8548S5CWB</t>
+  </si>
+  <si>
+    <t>DW300 프로</t>
+  </si>
+  <si>
+    <t>NEW X10</t>
+  </si>
+  <si>
+    <t>CM-268</t>
+  </si>
+  <si>
+    <t>CVC-LH600RW</t>
+  </si>
+  <si>
+    <t>AIR651V</t>
+  </si>
+  <si>
+    <t>큐리오 HC-4326</t>
+  </si>
+  <si>
+    <t>RS1</t>
+  </si>
+  <si>
+    <t>FX-108</t>
+  </si>
+  <si>
+    <t>바로바로 MC-B601</t>
+  </si>
+  <si>
+    <t>2017-SC01</t>
+  </si>
+  <si>
+    <t>S250W</t>
+  </si>
+  <si>
+    <t>PV1420MEXT</t>
+  </si>
+  <si>
+    <t>SVC-C17KP</t>
+  </si>
+  <si>
+    <t>PD1400</t>
+  </si>
+  <si>
+    <t>SMA-BL2000</t>
+  </si>
+  <si>
+    <t>AVE-808RCK</t>
+  </si>
+  <si>
+    <t>BVC-250G</t>
+  </si>
+  <si>
+    <t>플릭 에어샷 PIK-DC75</t>
+  </si>
+  <si>
+    <t>제트 VS15R8543S1CW</t>
+  </si>
+  <si>
+    <t>FC6140</t>
+  </si>
+  <si>
+    <t>SVC-D900RK</t>
+  </si>
+  <si>
+    <t>트루리빙 TL-VC770</t>
+  </si>
+  <si>
+    <t>제트 VS20R9074S3</t>
+  </si>
+  <si>
+    <t>바로바로 MHC-810</t>
+  </si>
+  <si>
+    <t>V11 컴플리트 플러스</t>
+  </si>
+  <si>
+    <t>에어포스 라이트 TY6544</t>
+  </si>
+  <si>
+    <t>코드제로 A9 A9579S+R9 R958DA</t>
+  </si>
+  <si>
+    <t>이지에 YE-01</t>
+  </si>
+  <si>
+    <t>파워프로 아쿠아 FC6404</t>
+  </si>
+  <si>
+    <t>FC6400</t>
+  </si>
+  <si>
+    <t>V10 플러피 플러스</t>
+  </si>
+  <si>
+    <t>네오스틱 NEW T5</t>
+  </si>
+  <si>
+    <t>퓨어 F9 PF91-6ESF</t>
+  </si>
+  <si>
+    <t>VC7212</t>
+  </si>
+  <si>
+    <t>AST-009P</t>
+  </si>
+  <si>
+    <t>큐텐 BR-Q390RV</t>
+  </si>
+  <si>
+    <t>제트 VS20T9277Q3</t>
+  </si>
+  <si>
+    <t>HV-5000</t>
+  </si>
+  <si>
+    <t>제트 VS20R9078S3CS</t>
+  </si>
+  <si>
+    <t>V11 컴플리트 프로</t>
+  </si>
+  <si>
+    <t>M500 터보</t>
+  </si>
+  <si>
+    <t>LFS-HA04</t>
+  </si>
+  <si>
+    <t>에어포스 TY8846KM</t>
+  </si>
+  <si>
+    <t>SVC-1316R</t>
+  </si>
+  <si>
+    <t>아토만 AT-VC2000</t>
+  </si>
+  <si>
+    <t>EZ1</t>
   </si>
   <si>
     <t>퓨어 F9 PF91-6BMF</t>
   </si>
   <si>
-    <t>S9</t>
-  </si>
-  <si>
-    <t>디제로 D2</t>
-  </si>
-  <si>
-    <t>VC-H22</t>
-  </si>
-  <si>
-    <t>D20 퓨어레드</t>
-  </si>
-  <si>
-    <t>TSX-25000A</t>
-  </si>
-  <si>
-    <t>제트 VS20T8282B2CS</t>
-  </si>
-  <si>
-    <t>SVC-1019L</t>
-  </si>
-  <si>
-    <t>SVC-680G</t>
-  </si>
-  <si>
-    <t>V7 플러피</t>
-  </si>
-  <si>
-    <t>DP-485VC</t>
-  </si>
-  <si>
-    <t>제트 VS20T9278S7</t>
-  </si>
-  <si>
-    <t>다이나킹 Z4</t>
-  </si>
-  <si>
-    <t>파워스틱 VS60K6051KW</t>
-  </si>
-  <si>
-    <t>에어포스 라이트 TY6545KL</t>
-  </si>
-  <si>
-    <t>PV1020</t>
-  </si>
-  <si>
-    <t>RQ40</t>
-  </si>
-  <si>
-    <t>유니버셜백 18</t>
-  </si>
-  <si>
-    <t>제트 VS20R9043QA</t>
-  </si>
-  <si>
-    <t>제트 VS20T9279S6CS</t>
-  </si>
-  <si>
-    <t>스톰건 V12 VC-R201</t>
-  </si>
-  <si>
-    <t>V10 앱솔루트</t>
-  </si>
-  <si>
-    <t>GAS18V-LI</t>
-  </si>
-  <si>
-    <t>바로바로 MC-B100</t>
-  </si>
-  <si>
-    <t>에르고라피도 플러스 ZB3106AK</t>
-  </si>
-  <si>
-    <t>SVC-DC2200SK</t>
-  </si>
-  <si>
-    <t>라피도 ZB5106</t>
+    <t>V8 애니멀</t>
+  </si>
+  <si>
+    <t>SVC-PB220WU</t>
+  </si>
+  <si>
+    <t>PD1420B</t>
+  </si>
+  <si>
+    <t>IA-I9V2</t>
   </si>
   <si>
     <t>웰스톰 VC250</t>
   </si>
   <si>
-    <t>AVG-LC9600BT</t>
-  </si>
-  <si>
-    <t>제트 VS15R8577S5CW</t>
-  </si>
-  <si>
-    <t>D-10</t>
-  </si>
-  <si>
-    <t>VC7210</t>
-  </si>
-  <si>
-    <t>롤링스턴 SVC-C1012WS</t>
-  </si>
-  <si>
-    <t>디어마 VC20S</t>
-  </si>
-  <si>
-    <t>에르고라피도 파워프로 ZB3411</t>
-  </si>
-  <si>
-    <t>UVC-1688</t>
-  </si>
-  <si>
-    <t>CX11</t>
-  </si>
-  <si>
-    <t>PD1400</t>
-  </si>
-  <si>
-    <t>F20 프로</t>
-  </si>
-  <si>
-    <t>TPV1820RAC</t>
-  </si>
-  <si>
-    <t>네오스틱 T1</t>
-  </si>
-  <si>
-    <t>T300</t>
-  </si>
-  <si>
-    <t>SVC-650SG</t>
-  </si>
-  <si>
-    <t>제트 VS20T9277Q3</t>
-  </si>
-  <si>
-    <t>W20</t>
-  </si>
-  <si>
-    <t>파워스틱 VS03R6523J2</t>
-  </si>
-  <si>
-    <t>VC-K300W</t>
-  </si>
-  <si>
-    <t>tech 타이푼 DV-889DC-X</t>
-  </si>
-  <si>
-    <t>V7 트리거 프로</t>
-  </si>
-  <si>
-    <t>에르고라피도 파워프로 ZB3423BO</t>
-  </si>
-  <si>
-    <t>제트 VS20T9278S3CS</t>
-  </si>
-  <si>
-    <t>M500 퀀텀</t>
-  </si>
-  <si>
-    <t>S7</t>
-  </si>
-  <si>
-    <t>DWVC-DC1630WS</t>
-  </si>
-  <si>
-    <t>퓨어 F9 PF91-6BWF</t>
-  </si>
-  <si>
-    <t>H80</t>
-  </si>
-  <si>
-    <t>EST-VX100</t>
-  </si>
-  <si>
-    <t>SVC-8900SG</t>
-  </si>
-  <si>
-    <t>제트 VS20T9279S6</t>
-  </si>
-  <si>
-    <t>에르고라피도 ZB3323BO</t>
-  </si>
-  <si>
-    <t>SN-XR330V</t>
-  </si>
-  <si>
-    <t>RS1</t>
-  </si>
-  <si>
-    <t>에르고라피도 ZB3104</t>
-  </si>
-  <si>
-    <t>V10 앱솔루트 프로</t>
-  </si>
-  <si>
-    <t>에어포스360 TY7233KO</t>
-  </si>
-  <si>
-    <t>JR-CWVB SRS</t>
-  </si>
-  <si>
-    <t>에어슬림 SMA-BV2200</t>
-  </si>
-  <si>
-    <t>F20 맥스</t>
-  </si>
-  <si>
-    <t>IA-I9V2</t>
-  </si>
-  <si>
-    <t>QX-408</t>
-  </si>
-  <si>
-    <t>퓨어 F9 PF91-5EBF</t>
-  </si>
-  <si>
-    <t>라피도 ZB5108</t>
-  </si>
-  <si>
-    <t>퓨어 F9 PF91-6XRF</t>
-  </si>
-  <si>
-    <t>바스웰 KSC-5000</t>
-  </si>
-  <si>
-    <t>VC-PS86</t>
-  </si>
-  <si>
-    <t>F6</t>
-  </si>
-  <si>
-    <t>제트 VS15R8548S5</t>
-  </si>
-  <si>
-    <t>V10 앱솔루트 엑스트라</t>
-  </si>
-  <si>
-    <t>로이드미 넥스 XCQ06RM</t>
-  </si>
-  <si>
-    <t>에어포스 라이트 TY6543KL</t>
-  </si>
-  <si>
-    <t>제트 VS20R9077Q3</t>
-  </si>
-  <si>
-    <t>P20 MAX</t>
-  </si>
-  <si>
-    <t>파워스틱 VS60K6081KD</t>
-  </si>
-  <si>
-    <t>이지에 YE-01</t>
-  </si>
-  <si>
-    <t>퓨어 F9 PF91-5OGF</t>
-  </si>
-  <si>
-    <t>글래스 백</t>
-  </si>
-  <si>
-    <t>QM-V200W</t>
-  </si>
-  <si>
-    <t>LFS-HA04</t>
-  </si>
-  <si>
-    <t>V7 모터헤드</t>
-  </si>
-  <si>
-    <t>제트 VS15R8543S1</t>
-  </si>
-  <si>
-    <t>M500 터보</t>
-  </si>
-  <si>
-    <t>F8</t>
-  </si>
-  <si>
-    <t>VC-H20</t>
-  </si>
-  <si>
-    <t>ZB3311</t>
-  </si>
-  <si>
-    <t>A20</t>
-  </si>
-  <si>
-    <t>ILVH-7500</t>
-  </si>
-  <si>
-    <t>퍼펙트 에브리원 EP HANARO-100</t>
-  </si>
-  <si>
-    <t>i20</t>
-  </si>
-  <si>
-    <t>TY9051</t>
-  </si>
-  <si>
-    <t>BS-14048-VC</t>
-  </si>
-  <si>
-    <t>에어포스360 TY9253</t>
-  </si>
-  <si>
-    <t>DCL182ZW</t>
-  </si>
-  <si>
-    <t>V11 애니멀</t>
-  </si>
-  <si>
-    <t>CX-1</t>
-  </si>
-  <si>
-    <t>제트 VS20T8282B2</t>
-  </si>
-  <si>
-    <t>제트 VS15R8544S4</t>
-  </si>
-  <si>
-    <t>V10 카본파이버 프로</t>
-  </si>
-  <si>
-    <t>SVC-750SG</t>
-  </si>
-  <si>
-    <t>SMA-BL2000</t>
-  </si>
-  <si>
-    <t>라피도 ZB6108</t>
-  </si>
-  <si>
-    <t>코드프리 P10</t>
-  </si>
-  <si>
-    <t>AT-H12V</t>
-  </si>
-  <si>
-    <t>퓨어 F9 PF91-6ESF</t>
-  </si>
-  <si>
-    <t>LSBC-6000</t>
-  </si>
-  <si>
-    <t>아토만 AT-VC2000</t>
-  </si>
-  <si>
-    <t>DWVC-AC800KP</t>
-  </si>
-  <si>
-    <t>ANA-1930</t>
-  </si>
-  <si>
-    <t>V8 애니멀</t>
-  </si>
-  <si>
-    <t>V-S300C</t>
-  </si>
-  <si>
-    <t>코드엑스</t>
-  </si>
-  <si>
-    <t>DWVC-DC9180KP</t>
-  </si>
-  <si>
-    <t>NSVA315J</t>
-  </si>
-  <si>
-    <t>SN-P1000VC</t>
-  </si>
-  <si>
-    <t>코드제로 A9 A9579S+R9 R958DA</t>
-  </si>
-  <si>
-    <t>다이나킹 Z7</t>
-  </si>
-  <si>
-    <t>UVC-1894</t>
-  </si>
-  <si>
-    <t>SVC-S4800SJ</t>
-  </si>
-  <si>
-    <t>VC-K1000</t>
-  </si>
-  <si>
-    <t>V8 앱솔루트 블루</t>
-  </si>
-  <si>
-    <t>에이스 프로</t>
-  </si>
-  <si>
-    <t>SVC-1316R</t>
-  </si>
-  <si>
-    <t>에어포스 익스트림 파워프로 TY8895KO</t>
-  </si>
-  <si>
-    <t>2017-SC01</t>
-  </si>
-  <si>
-    <t>DCL180Z</t>
-  </si>
-  <si>
-    <t>V8 애니멀 코드프리</t>
-  </si>
-  <si>
-    <t>V8 플러피 2</t>
-  </si>
-  <si>
-    <t>V8 애니멀 플러스</t>
-  </si>
-  <si>
-    <t>FC6152</t>
-  </si>
-  <si>
-    <t>에어포스360 에센셜</t>
-  </si>
-  <si>
-    <t>V8 플러피 플러스</t>
-  </si>
-  <si>
-    <t>V8 플러피2</t>
-  </si>
-  <si>
-    <t>V8 애니멀 프로</t>
-  </si>
-  <si>
-    <t>V8 앱솔루트 한정판</t>
-  </si>
-  <si>
-    <t>에어포스 360 TY9086</t>
-  </si>
-  <si>
-    <t>벤투스 슬림</t>
-  </si>
-  <si>
-    <t>제트 VS20R9044SA</t>
-  </si>
-  <si>
-    <t>VC7211</t>
-  </si>
-  <si>
-    <t>ZET-10</t>
-  </si>
-  <si>
-    <t>ALLNEW22000</t>
-  </si>
-  <si>
-    <t>큐텐 BR-Q390RV</t>
-  </si>
-  <si>
-    <t>VC-PS83</t>
-  </si>
-  <si>
-    <t>에어포스 360 TY9037</t>
-  </si>
-  <si>
-    <t>제로스톰</t>
-  </si>
-  <si>
-    <t>코드제로 A9 A968</t>
-  </si>
-  <si>
-    <t>MF-7700V</t>
-  </si>
-  <si>
-    <t>스톰파워 VE30</t>
-  </si>
-  <si>
-    <t>벨라</t>
+    <t>RPC-300</t>
   </si>
 </sst>
 </file>
@@ -1319,7 +1598,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F250"/>
+  <dimension ref="A1:F325"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1353,16 +1632,16 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="D2">
-        <v>139000</v>
+        <v>1041520</v>
       </c>
       <c r="E2">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="F2">
-        <v>220</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1373,16 +1652,16 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="D3">
-        <v>299000</v>
+        <v>371060</v>
       </c>
       <c r="E3">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="F3">
-        <v>220</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1393,10 +1672,10 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="D4">
-        <v>181100</v>
+        <v>170130</v>
       </c>
       <c r="E4">
         <v>60</v>
@@ -1413,16 +1692,16 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="D5">
-        <v>904900</v>
+        <v>299000</v>
       </c>
       <c r="E5">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="F5">
-        <v>140</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1433,13 +1712,13 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="D6">
-        <v>888720</v>
+        <v>129000</v>
       </c>
       <c r="E6">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F6">
         <v>220</v>
@@ -1450,19 +1729,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="D7">
-        <v>171600</v>
+        <v>133020</v>
       </c>
       <c r="E7">
-        <v>60</v>
-      </c>
-      <c r="F7">
-        <v>260</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1470,16 +1746,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="D8">
-        <v>802010</v>
+        <v>757160</v>
       </c>
       <c r="E8">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="F8">
         <v>200</v>
@@ -1490,19 +1766,19 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="D9">
-        <v>835420</v>
+        <v>743360</v>
       </c>
       <c r="E9">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F9">
-        <v>140</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1510,19 +1786,19 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="D10">
-        <v>416920</v>
+        <v>765970</v>
       </c>
       <c r="E10">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="F10">
-        <v>155</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1530,19 +1806,19 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="D11">
-        <v>615210</v>
+        <v>993520</v>
       </c>
       <c r="E11">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="F11">
-        <v>140</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1550,16 +1826,16 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="D12">
-        <v>140520</v>
+        <v>162590</v>
       </c>
       <c r="E12">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1567,19 +1843,19 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="D13">
-        <v>699080</v>
+        <v>599000</v>
       </c>
       <c r="E13">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F13">
-        <v>140</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1587,19 +1863,19 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="D14">
-        <v>766690</v>
+        <v>949990</v>
       </c>
       <c r="E14">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="F14">
-        <v>140</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1607,19 +1883,19 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="D15">
-        <v>146760</v>
+        <v>894790</v>
       </c>
       <c r="E15">
         <v>60</v>
       </c>
       <c r="F15">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1627,19 +1903,19 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="D16">
-        <v>68970</v>
+        <v>791660</v>
       </c>
       <c r="E16">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="F16">
-        <v>90</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1647,19 +1923,19 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="D17">
-        <v>459110</v>
+        <v>919410</v>
       </c>
       <c r="E17">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="F17">
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1667,19 +1943,16 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="D18">
-        <v>139200</v>
+        <v>325680</v>
       </c>
       <c r="E18">
-        <v>60</v>
-      </c>
-      <c r="F18">
-        <v>200</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1687,19 +1960,19 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="D19">
-        <v>640610</v>
+        <v>184990</v>
       </c>
       <c r="E19">
         <v>60</v>
       </c>
       <c r="F19">
-        <v>200</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1707,19 +1980,19 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="D20">
-        <v>835600</v>
+        <v>70870</v>
       </c>
       <c r="E20">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="F20">
-        <v>140</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1727,19 +2000,19 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="D21">
-        <v>37630</v>
+        <v>660950</v>
       </c>
       <c r="E21">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F21">
-        <v>60</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1747,19 +2020,19 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="D22">
-        <v>119950</v>
+        <v>625770</v>
       </c>
       <c r="E22">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F22">
-        <v>220</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1767,16 +2040,19 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="D23">
-        <v>289360</v>
+        <v>68580</v>
       </c>
       <c r="E23">
-        <v>50</v>
+        <v>45</v>
+      </c>
+      <c r="F23">
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1784,16 +2060,19 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="D24">
-        <v>547200</v>
+        <v>135900</v>
       </c>
       <c r="E24">
-        <v>40</v>
+        <v>60</v>
+      </c>
+      <c r="F24">
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1804,16 +2083,13 @@
         <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="D25">
-        <v>735640</v>
+        <v>270640</v>
       </c>
       <c r="E25">
-        <v>60</v>
-      </c>
-      <c r="F25">
-        <v>200</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1821,19 +2097,19 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="D26">
-        <v>780280</v>
+        <v>1075300</v>
       </c>
       <c r="E26">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="F26">
-        <v>160</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1841,19 +2117,16 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="D27">
-        <v>809090</v>
+        <v>742280</v>
       </c>
       <c r="E27">
-        <v>60</v>
-      </c>
-      <c r="F27">
-        <v>185</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1861,16 +2134,19 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D28">
-        <v>1249010</v>
+        <v>453170</v>
       </c>
       <c r="E28">
-        <v>120</v>
+        <v>40</v>
+      </c>
+      <c r="F28">
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1878,19 +2154,19 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="D29">
-        <v>324370</v>
+        <v>144670</v>
       </c>
       <c r="E29">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F29">
-        <v>130</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1898,16 +2174,19 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="D30">
-        <v>64900</v>
+        <v>178530</v>
       </c>
       <c r="E30">
-        <v>50</v>
+        <v>60</v>
+      </c>
+      <c r="F30">
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1915,19 +2194,16 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="D31">
-        <v>299000</v>
+        <v>495940</v>
       </c>
       <c r="E31">
-        <v>60</v>
-      </c>
-      <c r="F31">
-        <v>220</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1935,19 +2211,19 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="D32">
-        <v>64270</v>
+        <v>343290</v>
       </c>
       <c r="E32">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F32">
-        <v>100</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1955,16 +2231,19 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="D33">
-        <v>143430</v>
+        <v>481150</v>
       </c>
       <c r="E33">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="F33">
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1972,19 +2251,19 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="D34">
-        <v>736550</v>
+        <v>802790</v>
       </c>
       <c r="E34">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F34">
-        <v>185</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1995,16 +2274,16 @@
         <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="D35">
-        <v>104500</v>
+        <v>261680</v>
       </c>
       <c r="E35">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="F35">
-        <v>100</v>
+        <v>220</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2012,16 +2291,19 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C36" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="D36">
-        <v>45940</v>
+        <v>933010</v>
       </c>
       <c r="E36">
-        <v>12</v>
+        <v>120</v>
+      </c>
+      <c r="F36">
+        <v>200</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2029,16 +2311,16 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C37" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="D37">
-        <v>633320</v>
-      </c>
-      <c r="E37">
-        <v>60</v>
+        <v>34220</v>
+      </c>
+      <c r="F37">
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2046,19 +2328,19 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="D38">
-        <v>750820</v>
+        <v>309610</v>
       </c>
       <c r="E38">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F38">
-        <v>150</v>
+        <v>250</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2066,19 +2348,19 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C39" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="D39">
-        <v>440020</v>
+        <v>584840</v>
       </c>
       <c r="E39">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F39">
-        <v>155</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2086,16 +2368,16 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C40" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D40">
-        <v>764600</v>
+        <v>200610</v>
       </c>
       <c r="E40">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2103,19 +2385,16 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="D41">
-        <v>893570</v>
+        <v>64900</v>
       </c>
       <c r="E41">
-        <v>120</v>
-      </c>
-      <c r="F41">
-        <v>200</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2123,16 +2402,19 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C42" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="D42">
-        <v>354700</v>
+        <v>178580</v>
+      </c>
+      <c r="E42">
+        <v>30</v>
       </c>
       <c r="F42">
-        <v>185</v>
+        <v>220</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2140,19 +2422,19 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="D43">
-        <v>178980</v>
+        <v>815750</v>
       </c>
       <c r="E43">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="F43">
-        <v>220</v>
+        <v>200</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2160,16 +2442,19 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C44" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="D44">
-        <v>455000</v>
+        <v>118000</v>
       </c>
       <c r="E44">
-        <v>60</v>
+        <v>40</v>
+      </c>
+      <c r="F44">
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2177,19 +2462,19 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C45" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="D45">
-        <v>642110</v>
+        <v>730770</v>
       </c>
       <c r="E45">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F45">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2197,16 +2482,16 @@
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C46" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="D46">
-        <v>62920</v>
+        <v>276300</v>
       </c>
       <c r="E46">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2217,13 +2502,16 @@
         <v>13</v>
       </c>
       <c r="C47" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="D47">
-        <v>357350</v>
+        <v>884830</v>
       </c>
       <c r="E47">
-        <v>55</v>
+        <v>120</v>
+      </c>
+      <c r="F47">
+        <v>200</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2231,16 +2519,16 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="D48">
-        <v>205040</v>
+        <v>423080</v>
       </c>
       <c r="E48">
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2248,19 +2536,19 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="D49">
-        <v>99000</v>
+        <v>989210</v>
       </c>
       <c r="E49">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F49">
-        <v>70</v>
+        <v>140</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2268,19 +2556,16 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="D50">
-        <v>709000</v>
+        <v>479000</v>
       </c>
       <c r="E50">
-        <v>60</v>
-      </c>
-      <c r="F50">
-        <v>200</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2288,13 +2573,13 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C51" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="D51">
-        <v>85930</v>
+        <v>80190</v>
       </c>
       <c r="E51">
         <v>12</v>
@@ -2308,16 +2593,16 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="D52">
-        <v>404080</v>
+        <v>470000</v>
       </c>
       <c r="E52">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2325,19 +2610,19 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="D53">
-        <v>1186550</v>
+        <v>749560</v>
       </c>
       <c r="E53">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="F53">
-        <v>200</v>
+        <v>185</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2345,19 +2630,16 @@
         <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C54" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="D54">
-        <v>148720</v>
+        <v>80950</v>
       </c>
       <c r="E54">
-        <v>30</v>
-      </c>
-      <c r="F54">
-        <v>190</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2365,19 +2647,19 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C55" t="s">
+        <v>138</v>
+      </c>
+      <c r="D55">
+        <v>972200</v>
+      </c>
+      <c r="E55">
         <v>120</v>
       </c>
-      <c r="D55">
-        <v>449280</v>
-      </c>
-      <c r="E55">
-        <v>30</v>
-      </c>
       <c r="F55">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2385,19 +2667,19 @@
         <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="D56">
-        <v>534090</v>
+        <v>116650</v>
       </c>
       <c r="E56">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F56">
-        <v>155</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2405,16 +2687,19 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C57" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D57">
-        <v>418940</v>
+        <v>39140</v>
       </c>
       <c r="E57">
-        <v>40</v>
+        <v>20</v>
+      </c>
+      <c r="F57">
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2425,10 +2710,10 @@
         <v>20</v>
       </c>
       <c r="C58" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="D58">
-        <v>281000</v>
+        <v>276000</v>
       </c>
       <c r="E58">
         <v>40</v>
@@ -2442,19 +2727,19 @@
         <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C59" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="D59">
-        <v>664530</v>
+        <v>140240</v>
       </c>
       <c r="E59">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F59">
-        <v>155</v>
+        <v>190</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2462,19 +2747,16 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C60" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="D60">
-        <v>86000</v>
+        <v>200090</v>
       </c>
       <c r="E60">
-        <v>12</v>
-      </c>
-      <c r="F60">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2482,16 +2764,19 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="D61">
-        <v>182520</v>
+        <v>681580</v>
       </c>
       <c r="E61">
-        <v>30</v>
+        <v>40</v>
+      </c>
+      <c r="F61">
+        <v>155</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2499,19 +2784,16 @@
         <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C62" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="D62">
-        <v>878390</v>
+        <v>170940</v>
       </c>
       <c r="E62">
-        <v>40</v>
-      </c>
-      <c r="F62">
-        <v>115</v>
+        <v>48</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2519,13 +2801,13 @@
         <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="D63">
-        <v>1045700</v>
+        <v>624990</v>
       </c>
       <c r="E63">
         <v>40</v>
@@ -2539,13 +2821,13 @@
         <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="D64">
-        <v>781130</v>
+        <v>642020</v>
       </c>
       <c r="E64">
         <v>40</v>
@@ -2559,19 +2841,19 @@
         <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C65" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="D65">
-        <v>749990</v>
+        <v>734750</v>
       </c>
       <c r="E65">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F65">
-        <v>115</v>
+        <v>200</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2579,19 +2861,13 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C66" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="D66">
-        <v>135000</v>
-      </c>
-      <c r="E66">
-        <v>30</v>
-      </c>
-      <c r="F66">
-        <v>170</v>
+        <v>450240</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2599,16 +2875,16 @@
         <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C67" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="D67">
-        <v>239830</v>
+        <v>600000</v>
       </c>
       <c r="E67">
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2616,19 +2892,16 @@
         <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="D68">
-        <v>149000</v>
-      </c>
-      <c r="E68">
-        <v>40</v>
+        <v>360000</v>
       </c>
       <c r="F68">
-        <v>120</v>
+        <v>185</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2636,16 +2909,16 @@
         <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C69" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="D69">
-        <v>74330</v>
-      </c>
-      <c r="F69">
-        <v>70</v>
+        <v>271010</v>
+      </c>
+      <c r="E69">
+        <v>45</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2653,19 +2926,16 @@
         <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="D70">
-        <v>105800</v>
+        <v>787200</v>
       </c>
       <c r="E70">
-        <v>40</v>
-      </c>
-      <c r="F70">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2673,19 +2943,16 @@
         <v>6</v>
       </c>
       <c r="B71" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C71" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="D71">
-        <v>550000</v>
+        <v>79000</v>
       </c>
       <c r="E71">
-        <v>40</v>
-      </c>
-      <c r="F71">
-        <v>150</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2693,19 +2960,19 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="D72">
-        <v>168210</v>
+        <v>689620</v>
       </c>
       <c r="E72">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F72">
-        <v>220</v>
+        <v>155</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2713,19 +2980,19 @@
         <v>6</v>
       </c>
       <c r="B73" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C73" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="D73">
-        <v>969110</v>
+        <v>522500</v>
       </c>
       <c r="E73">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="F73">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2733,13 +3000,13 @@
         <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="D74">
-        <v>869510</v>
+        <v>980000</v>
       </c>
       <c r="E74">
         <v>80</v>
@@ -2753,13 +3020,13 @@
         <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="D75">
-        <v>970990</v>
+        <v>1181820</v>
       </c>
       <c r="E75">
         <v>40</v>
@@ -2773,19 +3040,19 @@
         <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="D76">
-        <v>869000</v>
+        <v>435100</v>
       </c>
       <c r="E76">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F76">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2793,16 +3060,19 @@
         <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="D77">
-        <v>543600</v>
+        <v>1550000</v>
       </c>
       <c r="E77">
-        <v>60</v>
+        <v>80</v>
+      </c>
+      <c r="F77">
+        <v>140</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2810,19 +3080,19 @@
         <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="D78">
-        <v>259000</v>
+        <v>878390</v>
       </c>
       <c r="E78">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F78">
-        <v>250</v>
+        <v>115</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2830,19 +3100,19 @@
         <v>6</v>
       </c>
       <c r="B79" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C79" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="D79">
-        <v>1264990</v>
+        <v>169000</v>
       </c>
       <c r="E79">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="F79">
-        <v>140</v>
+        <v>170</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2850,16 +3120,19 @@
         <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="D80">
-        <v>599000</v>
+        <v>790920</v>
       </c>
       <c r="E80">
-        <v>50</v>
+        <v>40</v>
+      </c>
+      <c r="F80">
+        <v>155</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2867,16 +3140,19 @@
         <v>6</v>
       </c>
       <c r="B81" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="D81">
-        <v>244640</v>
+        <v>1045700</v>
       </c>
       <c r="E81">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="F81">
+        <v>115</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2884,19 +3160,16 @@
         <v>6</v>
       </c>
       <c r="B82" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C82" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="D82">
-        <v>869020</v>
-      </c>
-      <c r="E82">
-        <v>20</v>
+        <v>75750</v>
       </c>
       <c r="F82">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2904,16 +3177,16 @@
         <v>6</v>
       </c>
       <c r="B83" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C83" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="D83">
-        <v>305610</v>
+        <v>599000</v>
       </c>
       <c r="E83">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2924,16 +3197,13 @@
         <v>12</v>
       </c>
       <c r="C84" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="D84">
-        <v>845540</v>
+        <v>321690</v>
       </c>
       <c r="E84">
-        <v>120</v>
-      </c>
-      <c r="F84">
-        <v>200</v>
+        <v>55</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2941,19 +3211,19 @@
         <v>6</v>
       </c>
       <c r="B85" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C85" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="D85">
-        <v>173960</v>
+        <v>692970</v>
       </c>
       <c r="E85">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F85">
-        <v>200</v>
+        <v>140</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2961,33 +3231,36 @@
         <v>6</v>
       </c>
       <c r="B86" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C86" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="D86">
-        <v>239000</v>
+        <v>135000</v>
       </c>
       <c r="E86">
         <v>30</v>
       </c>
+      <c r="F86">
+        <v>170</v>
+      </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
         <v>6</v>
       </c>
       <c r="B87" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C87" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="D87">
-        <v>225330</v>
+        <v>120980</v>
       </c>
       <c r="E87">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2998,13 +3271,16 @@
         <v>13</v>
       </c>
       <c r="C88" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="D88">
-        <v>69900</v>
+        <v>593510</v>
       </c>
       <c r="E88">
-        <v>24</v>
+        <v>40</v>
+      </c>
+      <c r="F88">
+        <v>150</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3012,19 +3288,19 @@
         <v>6</v>
       </c>
       <c r="B89" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C89" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="D89">
-        <v>885600</v>
+        <v>209000</v>
       </c>
       <c r="E89">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F89">
-        <v>185</v>
+        <v>70</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3035,10 +3311,13 @@
         <v>23</v>
       </c>
       <c r="C90" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="D90">
-        <v>34650</v>
+        <v>68900</v>
+      </c>
+      <c r="E90">
+        <v>100</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3046,16 +3325,19 @@
         <v>6</v>
       </c>
       <c r="B91" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C91" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="D91">
-        <v>305140</v>
+        <v>999990</v>
       </c>
       <c r="E91">
-        <v>55</v>
+        <v>80</v>
+      </c>
+      <c r="F91">
+        <v>140</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3063,16 +3345,19 @@
         <v>6</v>
       </c>
       <c r="B92" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="D92">
-        <v>133470</v>
+        <v>909090</v>
       </c>
       <c r="E92">
-        <v>42</v>
+        <v>20</v>
+      </c>
+      <c r="F92">
+        <v>100</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3080,16 +3365,16 @@
         <v>6</v>
       </c>
       <c r="B93" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C93" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="D93">
-        <v>152250</v>
+        <v>65420</v>
       </c>
       <c r="E93">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3100,13 +3385,13 @@
         <v>13</v>
       </c>
       <c r="C94" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="D94">
-        <v>376290</v>
+        <v>33490</v>
       </c>
       <c r="E94">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3114,19 +3399,13 @@
         <v>6</v>
       </c>
       <c r="B95" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C95" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="D95">
-        <v>148000</v>
-      </c>
-      <c r="E95">
-        <v>30</v>
-      </c>
-      <c r="F95">
-        <v>220</v>
+        <v>29260</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3134,19 +3413,19 @@
         <v>6</v>
       </c>
       <c r="B96" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C96" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="D96">
-        <v>46320</v>
+        <v>407550</v>
       </c>
       <c r="E96">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="F96">
-        <v>59</v>
+        <v>250</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3154,16 +3433,16 @@
         <v>6</v>
       </c>
       <c r="B97" t="s">
+        <v>13</v>
+      </c>
+      <c r="C97" t="s">
+        <v>180</v>
+      </c>
+      <c r="D97">
+        <v>46880</v>
+      </c>
+      <c r="E97">
         <v>12</v>
-      </c>
-      <c r="C97" t="s">
-        <v>162</v>
-      </c>
-      <c r="D97">
-        <v>31500</v>
-      </c>
-      <c r="E97">
-        <v>10</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3171,19 +3450,19 @@
         <v>6</v>
       </c>
       <c r="B98" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C98" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="D98">
-        <v>112230</v>
+        <v>99000</v>
       </c>
       <c r="E98">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F98">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3191,19 +3470,16 @@
         <v>6</v>
       </c>
       <c r="B99" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C99" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="D99">
-        <v>222730</v>
+        <v>152523</v>
       </c>
       <c r="E99">
-        <v>45</v>
-      </c>
-      <c r="F99">
-        <v>250</v>
+        <v>30</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3211,19 +3487,19 @@
         <v>6</v>
       </c>
       <c r="B100" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C100" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="D100">
-        <v>1590190</v>
+        <v>218000</v>
       </c>
       <c r="E100">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="F100">
-        <v>200</v>
+        <v>250</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3231,19 +3507,16 @@
         <v>6</v>
       </c>
       <c r="B101" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C101" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="D101">
-        <v>69000</v>
+        <v>127690</v>
       </c>
       <c r="E101">
-        <v>20</v>
-      </c>
-      <c r="F101">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3251,16 +3524,16 @@
         <v>6</v>
       </c>
       <c r="B102" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C102" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="D102">
-        <v>23540</v>
+        <v>408650</v>
       </c>
       <c r="E102">
-        <v>15</v>
+        <v>55</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3268,19 +3541,19 @@
         <v>6</v>
       </c>
       <c r="B103" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C103" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="D103">
-        <v>387230</v>
+        <v>249000</v>
       </c>
       <c r="E103">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F103">
-        <v>100</v>
+        <v>250</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3288,13 +3561,16 @@
         <v>6</v>
       </c>
       <c r="B104" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C104" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="D104">
-        <v>18080</v>
+        <v>166730</v>
+      </c>
+      <c r="E104">
+        <v>48</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3302,19 +3578,16 @@
         <v>6</v>
       </c>
       <c r="B105" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C105" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="D105">
-        <v>1305590</v>
+        <v>156970</v>
       </c>
       <c r="E105">
-        <v>120</v>
-      </c>
-      <c r="F105">
-        <v>200</v>
+        <v>40</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3322,19 +3595,19 @@
         <v>6</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C106" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="D106">
-        <v>99000</v>
+        <v>853390</v>
       </c>
       <c r="E106">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F106">
-        <v>180</v>
+        <v>200</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3342,13 +3615,13 @@
         <v>6</v>
       </c>
       <c r="B107" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C107" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="D107">
-        <v>209150</v>
+        <v>269000</v>
       </c>
       <c r="E107">
         <v>60</v>
@@ -3359,16 +3632,19 @@
         <v>6</v>
       </c>
       <c r="B108" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C108" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="D108">
-        <v>101750</v>
+        <v>86320</v>
       </c>
       <c r="E108">
-        <v>30</v>
+        <v>12</v>
+      </c>
+      <c r="F108">
+        <v>35</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3376,16 +3652,16 @@
         <v>6</v>
       </c>
       <c r="B109" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C109" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="D109">
-        <v>54980</v>
+        <v>258300</v>
       </c>
       <c r="E109">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3393,19 +3669,19 @@
         <v>6</v>
       </c>
       <c r="B110" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="D110">
-        <v>223120</v>
+        <v>911170</v>
       </c>
       <c r="E110">
         <v>60</v>
       </c>
       <c r="F110">
-        <v>250</v>
+        <v>185</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3413,16 +3689,13 @@
         <v>6</v>
       </c>
       <c r="B111" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C111" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="D111">
-        <v>122840</v>
-      </c>
-      <c r="E111">
-        <v>20</v>
+        <v>16980</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3430,19 +3703,16 @@
         <v>6</v>
       </c>
       <c r="B112" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C112" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="D112">
-        <v>654710</v>
-      </c>
-      <c r="E112">
-        <v>60</v>
+        <v>93280</v>
       </c>
       <c r="F112">
-        <v>200</v>
+        <v>170</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3450,19 +3720,16 @@
         <v>6</v>
       </c>
       <c r="B113" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C113" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="D113">
-        <v>1376540</v>
+        <v>105730</v>
       </c>
       <c r="E113">
-        <v>120</v>
-      </c>
-      <c r="F113">
-        <v>200</v>
+        <v>30</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3473,16 +3740,16 @@
         <v>30</v>
       </c>
       <c r="C114" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="D114">
-        <v>303040</v>
+        <v>49770</v>
       </c>
       <c r="E114">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="F114">
-        <v>200</v>
+        <v>59</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3490,16 +3757,13 @@
         <v>6</v>
       </c>
       <c r="B115" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C115" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="D115">
-        <v>730720</v>
-      </c>
-      <c r="E115">
-        <v>60</v>
+        <v>286020</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3507,13 +3771,19 @@
         <v>6</v>
       </c>
       <c r="B116" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C116" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="D116">
-        <v>139500</v>
+        <v>846780</v>
+      </c>
+      <c r="E116">
+        <v>80</v>
+      </c>
+      <c r="F116">
+        <v>140</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3521,16 +3791,19 @@
         <v>6</v>
       </c>
       <c r="B117" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C117" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="D117">
-        <v>24000</v>
+        <v>69000</v>
+      </c>
+      <c r="E117">
+        <v>20</v>
       </c>
       <c r="F117">
-        <v>15</v>
+        <v>45</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3538,16 +3811,19 @@
         <v>6</v>
       </c>
       <c r="B118" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C118" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="D118">
-        <v>137190</v>
+        <v>38680</v>
       </c>
       <c r="E118">
-        <v>30</v>
+        <v>9</v>
+      </c>
+      <c r="F118">
+        <v>60</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3555,16 +3831,19 @@
         <v>6</v>
       </c>
       <c r="B119" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C119" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="D119">
-        <v>104720</v>
+        <v>1309000</v>
       </c>
       <c r="E119">
-        <v>35</v>
+        <v>60</v>
+      </c>
+      <c r="F119">
+        <v>200</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3572,16 +3851,16 @@
         <v>6</v>
       </c>
       <c r="B120" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C120" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="D120">
-        <v>44780</v>
+        <v>55760</v>
       </c>
       <c r="E120">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3589,19 +3868,19 @@
         <v>6</v>
       </c>
       <c r="B121" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C121" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="D121">
-        <v>138300</v>
+        <v>699000</v>
       </c>
       <c r="E121">
         <v>40</v>
       </c>
       <c r="F121">
-        <v>220</v>
+        <v>150</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3609,16 +3888,16 @@
         <v>6</v>
       </c>
       <c r="B122" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C122" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="D122">
-        <v>205980</v>
-      </c>
-      <c r="F122">
-        <v>210</v>
+        <v>95290</v>
+      </c>
+      <c r="E122">
+        <v>35</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3629,16 +3908,13 @@
         <v>12</v>
       </c>
       <c r="C123" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="D123">
-        <v>937760</v>
+        <v>495240</v>
       </c>
       <c r="E123">
-        <v>80</v>
-      </c>
-      <c r="F123">
-        <v>150</v>
+        <v>53</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3646,19 +3922,19 @@
         <v>6</v>
       </c>
       <c r="B124" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C124" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="D124">
-        <v>129940</v>
+        <v>86920</v>
       </c>
       <c r="E124">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F124">
-        <v>25</v>
+        <v>90</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3666,13 +3942,19 @@
         <v>6</v>
       </c>
       <c r="B125" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C125" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="D125">
-        <v>36500</v>
+        <v>112200</v>
+      </c>
+      <c r="E125">
+        <v>30</v>
+      </c>
+      <c r="F125">
+        <v>180</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3680,16 +3962,16 @@
         <v>6</v>
       </c>
       <c r="B126" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C126" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="D126">
-        <v>93950</v>
+        <v>46400</v>
       </c>
       <c r="E126">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3697,19 +3979,19 @@
         <v>6</v>
       </c>
       <c r="B127" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C127" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="D127">
-        <v>62890</v>
+        <v>249000</v>
       </c>
       <c r="E127">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F127">
-        <v>55</v>
+        <v>250</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3717,16 +3999,16 @@
         <v>6</v>
       </c>
       <c r="B128" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C128" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="D128">
-        <v>231860</v>
+        <v>51980</v>
       </c>
       <c r="E128">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,13 +4016,19 @@
         <v>6</v>
       </c>
       <c r="B129" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C129" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="D129">
-        <v>18130</v>
+        <v>226500</v>
+      </c>
+      <c r="E129">
+        <v>60</v>
+      </c>
+      <c r="F129">
+        <v>250</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3748,19 +4036,16 @@
         <v>6</v>
       </c>
       <c r="B130" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C130" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="D130">
-        <v>169000</v>
+        <v>475150</v>
       </c>
       <c r="E130">
-        <v>60</v>
-      </c>
-      <c r="F130">
-        <v>200</v>
+        <v>53</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3768,16 +4053,19 @@
         <v>6</v>
       </c>
       <c r="B131" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C131" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="D131">
-        <v>72090</v>
+        <v>177820</v>
       </c>
       <c r="E131">
-        <v>12</v>
+        <v>30</v>
+      </c>
+      <c r="F131">
+        <v>220</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3785,19 +4073,16 @@
         <v>6</v>
       </c>
       <c r="B132" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C132" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="D132">
-        <v>158620</v>
+        <v>61440</v>
       </c>
       <c r="E132">
-        <v>50</v>
-      </c>
-      <c r="F132">
-        <v>220</v>
+        <v>11</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3805,16 +4090,16 @@
         <v>6</v>
       </c>
       <c r="B133" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C133" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="D133">
-        <v>70200</v>
+        <v>333350</v>
       </c>
       <c r="E133">
-        <v>12</v>
+        <v>55</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3825,13 +4110,13 @@
         <v>34</v>
       </c>
       <c r="C134" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="D134">
-        <v>118900</v>
+        <v>34400</v>
       </c>
       <c r="E134">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3839,19 +4124,19 @@
         <v>6</v>
       </c>
       <c r="B135" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C135" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="D135">
-        <v>248800</v>
+        <v>49800</v>
       </c>
       <c r="E135">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F135">
-        <v>260</v>
+        <v>60</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3859,16 +4144,19 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C136" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="D136">
-        <v>28900</v>
+        <v>1130410</v>
+      </c>
+      <c r="E136">
+        <v>120</v>
       </c>
       <c r="F136">
-        <v>35</v>
+        <v>200</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3876,19 +4164,19 @@
         <v>6</v>
       </c>
       <c r="B137" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="D137">
-        <v>1063050</v>
+        <v>177660</v>
       </c>
       <c r="E137">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="F137">
-        <v>200</v>
+        <v>220</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3896,19 +4184,19 @@
         <v>6</v>
       </c>
       <c r="B138" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C138" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="D138">
-        <v>115000</v>
+        <v>667800</v>
       </c>
       <c r="E138">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="F138">
-        <v>120</v>
+        <v>200</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3916,13 +4204,19 @@
         <v>6</v>
       </c>
       <c r="B139" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C139" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="D139">
-        <v>269000</v>
+        <v>86000</v>
+      </c>
+      <c r="E139">
+        <v>30</v>
+      </c>
+      <c r="F139">
+        <v>80</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3930,19 +4224,19 @@
         <v>6</v>
       </c>
       <c r="B140" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C140" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="D140">
-        <v>97250</v>
+        <v>814400</v>
       </c>
       <c r="E140">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F140">
-        <v>220</v>
+        <v>150</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3950,19 +4244,19 @@
         <v>6</v>
       </c>
       <c r="B141" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="D141">
-        <v>118000</v>
+        <v>1189990</v>
       </c>
       <c r="E141">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F141">
-        <v>200</v>
+        <v>220</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3970,19 +4264,13 @@
         <v>6</v>
       </c>
       <c r="B142" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="C142" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="D142">
-        <v>262800</v>
-      </c>
-      <c r="E142">
-        <v>30</v>
-      </c>
-      <c r="F142">
-        <v>100</v>
+        <v>99000</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3990,13 +4278,13 @@
         <v>6</v>
       </c>
       <c r="B143" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C143" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="D143">
-        <v>239360</v>
+        <v>256910</v>
       </c>
       <c r="E143">
         <v>48</v>
@@ -4007,19 +4295,19 @@
         <v>6</v>
       </c>
       <c r="B144" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="D144">
         <v>0</v>
       </c>
       <c r="E144">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="F144">
-        <v>200</v>
+        <v>220</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4027,19 +4315,19 @@
         <v>6</v>
       </c>
       <c r="B145" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C145" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="D145">
-        <v>259000</v>
+        <v>70470</v>
       </c>
       <c r="E145">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="F145">
-        <v>250</v>
+        <v>20</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4047,16 +4335,16 @@
         <v>6</v>
       </c>
       <c r="B146" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C146" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="D146">
-        <v>99000</v>
+        <v>339150</v>
       </c>
       <c r="E146">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="F146">
         <v>200</v>
@@ -4067,33 +4355,36 @@
         <v>6</v>
       </c>
       <c r="B147" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="C147" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="D147">
-        <v>56910</v>
+        <v>529010</v>
       </c>
       <c r="E147">
         <v>40</v>
       </c>
+      <c r="F147">
+        <v>150</v>
+      </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" t="s">
         <v>6</v>
       </c>
       <c r="B148" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C148" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="D148">
-        <v>473120</v>
+        <v>98400</v>
       </c>
       <c r="E148">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4101,19 +4392,19 @@
         <v>6</v>
       </c>
       <c r="B149" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="C149" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="D149">
-        <v>49800</v>
+        <v>187060</v>
       </c>
       <c r="E149">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F149">
-        <v>60</v>
+        <v>220</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4121,19 +4412,16 @@
         <v>6</v>
       </c>
       <c r="B150" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="C150" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="D150">
-        <v>89900</v>
+        <v>98920</v>
       </c>
       <c r="E150">
-        <v>22</v>
-      </c>
-      <c r="F150">
-        <v>130</v>
+        <v>18</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4141,19 +4429,16 @@
         <v>6</v>
       </c>
       <c r="B151" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C151" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="D151">
-        <v>33530</v>
+        <v>149000</v>
       </c>
       <c r="E151">
-        <v>10</v>
-      </c>
-      <c r="F151">
-        <v>62</v>
+        <v>35</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4161,19 +4446,19 @@
         <v>6</v>
       </c>
       <c r="B152" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C152" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="D152">
-        <v>1186550</v>
+        <v>153230</v>
       </c>
       <c r="E152">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="F152">
-        <v>200</v>
+        <v>220</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4181,16 +4466,16 @@
         <v>6</v>
       </c>
       <c r="B153" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C153" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="D153">
-        <v>220500</v>
-      </c>
-      <c r="E153">
-        <v>48</v>
+        <v>23590</v>
+      </c>
+      <c r="F153">
+        <v>15</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4198,16 +4483,16 @@
         <v>6</v>
       </c>
       <c r="B154" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="C154" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="D154">
-        <v>49900</v>
+        <v>79340</v>
       </c>
       <c r="E154">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4215,19 +4500,19 @@
         <v>6</v>
       </c>
       <c r="B155" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="D155">
-        <v>165000</v>
+        <v>86130</v>
       </c>
       <c r="E155">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="F155">
-        <v>250</v>
+        <v>120</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4235,33 +4520,39 @@
         <v>6</v>
       </c>
       <c r="B156" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C156" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="D156">
-        <v>118990</v>
+        <v>164800</v>
       </c>
       <c r="E156">
         <v>30</v>
       </c>
+      <c r="F156">
+        <v>220</v>
+      </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" t="s">
         <v>6</v>
       </c>
       <c r="B157" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C157" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="D157">
-        <v>722870</v>
+        <v>569690</v>
       </c>
       <c r="E157">
-        <v>60</v>
+        <v>40</v>
+      </c>
+      <c r="F157">
+        <v>150</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4269,16 +4560,19 @@
         <v>6</v>
       </c>
       <c r="B158" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C158" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="D158">
-        <v>288990</v>
+        <v>119890</v>
       </c>
       <c r="E158">
-        <v>45</v>
+        <v>30</v>
+      </c>
+      <c r="F158">
+        <v>190</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4289,16 +4583,16 @@
         <v>42</v>
       </c>
       <c r="C159" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="D159">
-        <v>74890</v>
+        <v>172720</v>
       </c>
       <c r="E159">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="F159">
-        <v>40</v>
+        <v>210</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4306,19 +4600,19 @@
         <v>6</v>
       </c>
       <c r="B160" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C160" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="D160">
-        <v>598370</v>
+        <v>89800</v>
       </c>
       <c r="E160">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F160">
-        <v>170</v>
+        <v>115</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4326,19 +4620,16 @@
         <v>6</v>
       </c>
       <c r="B161" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C161" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="D161">
-        <v>220120</v>
+        <v>385170</v>
       </c>
       <c r="E161">
-        <v>50</v>
-      </c>
-      <c r="F161">
-        <v>250</v>
+        <v>66</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4346,16 +4637,19 @@
         <v>6</v>
       </c>
       <c r="B162" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C162" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="D162">
-        <v>118680</v>
+        <v>59800</v>
       </c>
       <c r="E162">
-        <v>35</v>
+        <v>15</v>
+      </c>
+      <c r="F162">
+        <v>50</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4363,19 +4657,19 @@
         <v>6</v>
       </c>
       <c r="B163" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="D163">
-        <v>25810</v>
+        <v>306690</v>
       </c>
       <c r="E163">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F163">
-        <v>15</v>
+        <v>100</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4383,16 +4677,19 @@
         <v>6</v>
       </c>
       <c r="B164" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="C164" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="D164">
-        <v>342800</v>
+        <v>63960</v>
       </c>
       <c r="E164">
-        <v>55</v>
+        <v>40</v>
+      </c>
+      <c r="F164">
+        <v>80</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4400,16 +4697,16 @@
         <v>6</v>
       </c>
       <c r="B165" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C165" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="D165">
-        <v>98990</v>
+        <v>39500</v>
       </c>
       <c r="E165">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4417,16 +4714,16 @@
         <v>6</v>
       </c>
       <c r="B166" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C166" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="D166">
-        <v>420470</v>
+        <v>33850</v>
       </c>
       <c r="E166">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4434,16 +4731,19 @@
         <v>6</v>
       </c>
       <c r="B167" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C167" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="D167">
-        <v>96290</v>
+        <v>79000</v>
       </c>
       <c r="E167">
-        <v>120</v>
+        <v>25</v>
+      </c>
+      <c r="F167">
+        <v>130</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4451,16 +4751,13 @@
         <v>6</v>
       </c>
       <c r="B168" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="C168" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="D168">
-        <v>74900</v>
-      </c>
-      <c r="E168">
-        <v>15</v>
+        <v>27210</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4471,13 +4768,16 @@
         <v>14</v>
       </c>
       <c r="C169" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="D169">
-        <v>113050</v>
+        <v>148720</v>
+      </c>
+      <c r="E169">
+        <v>50</v>
       </c>
       <c r="F169">
-        <v>52</v>
+        <v>220</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4485,19 +4785,19 @@
         <v>6</v>
       </c>
       <c r="B170" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C170" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="D170">
-        <v>625950</v>
+        <v>715160</v>
       </c>
       <c r="E170">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F170">
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4505,16 +4805,19 @@
         <v>6</v>
       </c>
       <c r="B171" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="C171" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="D171">
-        <v>715430</v>
+        <v>169000</v>
       </c>
       <c r="E171">
-        <v>60</v>
+        <v>35</v>
+      </c>
+      <c r="F171">
+        <v>160</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4522,19 +4825,19 @@
         <v>6</v>
       </c>
       <c r="B172" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C172" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="D172">
-        <v>345710</v>
+        <v>1344520</v>
       </c>
       <c r="E172">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="F172">
-        <v>235</v>
+        <v>200</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4542,16 +4845,19 @@
         <v>6</v>
       </c>
       <c r="B173" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="D173">
-        <v>101750</v>
+        <v>912420</v>
       </c>
       <c r="E173">
-        <v>30</v>
+        <v>60</v>
+      </c>
+      <c r="F173">
+        <v>185</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4559,19 +4865,19 @@
         <v>6</v>
       </c>
       <c r="B174" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="C174" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="D174">
-        <v>985500</v>
+        <v>239000</v>
       </c>
       <c r="E174">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="F174">
-        <v>200</v>
+        <v>250</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4579,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B175" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C175" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="D175">
-        <v>87300</v>
-      </c>
-      <c r="F175">
-        <v>170</v>
+        <v>73790</v>
+      </c>
+      <c r="E175">
+        <v>23</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4599,13 +4905,13 @@
         <v>12</v>
       </c>
       <c r="C176" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="D176">
-        <v>221450</v>
+        <v>138580</v>
       </c>
       <c r="E176">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4613,16 +4919,16 @@
         <v>6</v>
       </c>
       <c r="B177" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C177" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="D177">
-        <v>28490</v>
+        <v>68320</v>
       </c>
       <c r="E177">
-        <v>120</v>
+        <v>14</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4630,16 +4936,16 @@
         <v>6</v>
       </c>
       <c r="B178" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C178" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="D178">
-        <v>330520</v>
+        <v>25830</v>
       </c>
       <c r="E178">
-        <v>55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4647,16 +4953,19 @@
         <v>6</v>
       </c>
       <c r="B179" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C179" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="D179">
-        <v>120000</v>
+        <v>643280</v>
       </c>
       <c r="E179">
-        <v>30</v>
+        <v>40</v>
+      </c>
+      <c r="F179">
+        <v>150</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4664,19 +4973,13 @@
         <v>6</v>
       </c>
       <c r="B180" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C180" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="D180">
-        <v>121630</v>
-      </c>
-      <c r="E180">
-        <v>30</v>
-      </c>
-      <c r="F180">
-        <v>85</v>
+        <v>21320</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4684,19 +4987,16 @@
         <v>6</v>
       </c>
       <c r="B181" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="C181" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="D181">
-        <v>25900</v>
+        <v>556890</v>
       </c>
       <c r="E181">
-        <v>20</v>
-      </c>
-      <c r="F181">
-        <v>20</v>
+        <v>53</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4704,13 +5004,13 @@
         <v>6</v>
       </c>
       <c r="B182" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="D182">
-        <v>299000</v>
+        <v>413990</v>
       </c>
       <c r="E182">
         <v>30</v>
@@ -4724,39 +5024,33 @@
         <v>6</v>
       </c>
       <c r="B183" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="C183" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="D183">
-        <v>614420</v>
+        <v>218000</v>
       </c>
       <c r="E183">
         <v>40</v>
       </c>
-      <c r="F183">
-        <v>150</v>
-      </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" t="s">
         <v>6</v>
       </c>
       <c r="B184" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C184" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="D184">
-        <v>169000</v>
+        <v>246050</v>
       </c>
       <c r="E184">
-        <v>30</v>
-      </c>
-      <c r="F184">
-        <v>220</v>
+        <v>35</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4764,19 +5058,19 @@
         <v>6</v>
       </c>
       <c r="B185" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="C185" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="D185">
-        <v>169550</v>
+        <v>87960</v>
       </c>
       <c r="E185">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F185">
-        <v>220</v>
+        <v>130</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4784,16 +5078,16 @@
         <v>6</v>
       </c>
       <c r="B186" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="C186" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="D186">
-        <v>31150</v>
+        <v>383040</v>
       </c>
       <c r="E186">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4801,16 +5095,19 @@
         <v>6</v>
       </c>
       <c r="B187" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C187" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="D187">
-        <v>176940</v>
+        <v>159000</v>
       </c>
       <c r="E187">
-        <v>48</v>
+        <v>35</v>
+      </c>
+      <c r="F187">
+        <v>150</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4818,19 +5115,19 @@
         <v>6</v>
       </c>
       <c r="B188" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C188" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="D188">
-        <v>65280</v>
+        <v>60630</v>
       </c>
       <c r="E188">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F188">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4838,19 +5135,19 @@
         <v>6</v>
       </c>
       <c r="B189" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C189" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="D189">
-        <v>99000</v>
+        <v>89000</v>
       </c>
       <c r="E189">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F189">
-        <v>180</v>
+        <v>190</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4858,13 +5155,19 @@
         <v>6</v>
       </c>
       <c r="B190" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C190" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="D190">
-        <v>220320</v>
+        <v>365480</v>
+      </c>
+      <c r="E190">
+        <v>60</v>
+      </c>
+      <c r="F190">
+        <v>235</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4872,19 +5175,19 @@
         <v>6</v>
       </c>
       <c r="B191" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="C191" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="D191">
-        <v>219000</v>
+        <v>116310</v>
       </c>
       <c r="E191">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F191">
-        <v>250</v>
+        <v>120</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4892,16 +5195,13 @@
         <v>6</v>
       </c>
       <c r="B192" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C192" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="D192">
-        <v>271910</v>
-      </c>
-      <c r="E192">
-        <v>20</v>
+        <v>35900</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4909,13 +5209,19 @@
         <v>6</v>
       </c>
       <c r="B193" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="C193" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="D193">
-        <v>28930</v>
+        <v>119000</v>
+      </c>
+      <c r="E193">
+        <v>35</v>
+      </c>
+      <c r="F193">
+        <v>120</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4923,16 +5229,19 @@
         <v>6</v>
       </c>
       <c r="B194" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C194" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="D194">
-        <v>329310</v>
+        <v>129000</v>
       </c>
       <c r="E194">
-        <v>30</v>
+        <v>40</v>
+      </c>
+      <c r="F194">
+        <v>120</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4940,16 +5249,19 @@
         <v>6</v>
       </c>
       <c r="B195" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C195" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="D195">
-        <v>56000</v>
+        <v>157330</v>
       </c>
       <c r="E195">
-        <v>40</v>
+        <v>20</v>
+      </c>
+      <c r="F195">
+        <v>150</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4957,16 +5269,19 @@
         <v>6</v>
       </c>
       <c r="B196" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C196" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="D196">
-        <v>609660</v>
+        <v>1050990</v>
       </c>
       <c r="E196">
-        <v>60</v>
+        <v>120</v>
+      </c>
+      <c r="F196">
+        <v>200</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4974,19 +5289,16 @@
         <v>6</v>
       </c>
       <c r="B197" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C197" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="D197">
-        <v>89100</v>
+        <v>218410</v>
       </c>
       <c r="E197">
-        <v>25</v>
-      </c>
-      <c r="F197">
-        <v>120</v>
+        <v>48</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4994,19 +5306,13 @@
         <v>6</v>
       </c>
       <c r="B198" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C198" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="D198">
-        <v>1365080</v>
-      </c>
-      <c r="E198">
-        <v>120</v>
-      </c>
-      <c r="F198">
-        <v>200</v>
+        <v>58000</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5014,19 +5320,16 @@
         <v>6</v>
       </c>
       <c r="B199" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C199" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="D199">
-        <v>688180</v>
+        <v>215650</v>
       </c>
       <c r="E199">
-        <v>40</v>
-      </c>
-      <c r="F199">
-        <v>150</v>
+        <v>60</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5034,19 +5337,19 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C200" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="D200">
-        <v>745910</v>
+        <v>223440</v>
       </c>
       <c r="E200">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F200">
-        <v>160</v>
+        <v>250</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5054,19 +5357,19 @@
         <v>6</v>
       </c>
       <c r="B201" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C201" t="s">
-        <v>266</v>
+        <v>284</v>
       </c>
       <c r="D201">
-        <v>44700</v>
+        <v>109000</v>
       </c>
       <c r="E201">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="F201">
-        <v>86</v>
+        <v>200</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5074,19 +5377,19 @@
         <v>6</v>
       </c>
       <c r="B202" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="C202" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="D202">
-        <v>141900</v>
+        <v>79900</v>
       </c>
       <c r="E202">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F202">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5094,16 +5397,19 @@
         <v>6</v>
       </c>
       <c r="B203" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C203" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D203">
-        <v>71450</v>
+        <v>198290</v>
       </c>
       <c r="E203">
-        <v>23</v>
+        <v>60</v>
+      </c>
+      <c r="F203">
+        <v>200</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5111,19 +5417,13 @@
         <v>6</v>
       </c>
       <c r="B204" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="C204" t="s">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="D204">
-        <v>128990</v>
-      </c>
-      <c r="E204">
-        <v>30</v>
-      </c>
-      <c r="F204">
-        <v>190</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5131,19 +5431,19 @@
         <v>6</v>
       </c>
       <c r="B205" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C205" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="D205">
-        <v>20990</v>
+        <v>777330</v>
       </c>
       <c r="E205">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="F205">
-        <v>90</v>
+        <v>200</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5154,13 +5454,16 @@
         <v>13</v>
       </c>
       <c r="C206" t="s">
-        <v>271</v>
+        <v>289</v>
       </c>
       <c r="D206">
-        <v>497940</v>
+        <v>749000</v>
       </c>
       <c r="E206">
-        <v>60</v>
+        <v>40</v>
+      </c>
+      <c r="F206">
+        <v>150</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5168,16 +5471,16 @@
         <v>6</v>
       </c>
       <c r="B207" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="C207" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="D207">
-        <v>49800</v>
+        <v>177490</v>
       </c>
       <c r="E207">
-        <v>100</v>
+        <v>48</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5185,16 +5488,19 @@
         <v>6</v>
       </c>
       <c r="B208" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="C208" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="D208">
-        <v>22960</v>
+        <v>169000</v>
       </c>
       <c r="E208">
-        <v>35</v>
+        <v>60</v>
+      </c>
+      <c r="F208">
+        <v>200</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5202,13 +5508,16 @@
         <v>6</v>
       </c>
       <c r="B209" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C209" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="D209">
-        <v>23910</v>
+        <v>30570</v>
+      </c>
+      <c r="E209">
+        <v>12</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5216,19 +5525,16 @@
         <v>6</v>
       </c>
       <c r="B210" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="C210" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="D210">
-        <v>176330</v>
+        <v>155790</v>
       </c>
       <c r="E210">
-        <v>60</v>
-      </c>
-      <c r="F210">
-        <v>210</v>
+        <v>30</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5236,19 +5542,19 @@
         <v>6</v>
       </c>
       <c r="B211" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C211" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="D211">
-        <v>552000</v>
+        <v>839070</v>
       </c>
       <c r="E211">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F211">
-        <v>115</v>
+        <v>200</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5256,13 +5562,16 @@
         <v>6</v>
       </c>
       <c r="B212" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C212" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="D212">
-        <v>22000</v>
+        <v>794000</v>
+      </c>
+      <c r="E212">
+        <v>60</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5270,19 +5579,13 @@
         <v>6</v>
       </c>
       <c r="B213" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="C213" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="D213">
-        <v>249000</v>
-      </c>
-      <c r="E213">
-        <v>60</v>
-      </c>
-      <c r="F213">
-        <v>220</v>
+        <v>235800</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5290,16 +5593,19 @@
         <v>6</v>
       </c>
       <c r="B214" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="C214" t="s">
-        <v>279</v>
+        <v>297</v>
       </c>
       <c r="D214">
-        <v>58490</v>
+        <v>169000</v>
       </c>
       <c r="E214">
-        <v>40</v>
+        <v>60</v>
+      </c>
+      <c r="F214">
+        <v>200</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5307,13 +5613,19 @@
         <v>6</v>
       </c>
       <c r="B215" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C215" t="s">
-        <v>280</v>
+        <v>298</v>
       </c>
       <c r="D215">
-        <v>56840</v>
+        <v>930460</v>
+      </c>
+      <c r="E215">
+        <v>120</v>
+      </c>
+      <c r="F215">
+        <v>200</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5321,13 +5633,16 @@
         <v>6</v>
       </c>
       <c r="B216" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="C216" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="D216">
-        <v>32110</v>
+        <v>366000</v>
+      </c>
+      <c r="E216">
+        <v>60</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5335,19 +5650,19 @@
         <v>6</v>
       </c>
       <c r="B217" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C217" t="s">
-        <v>282</v>
+        <v>300</v>
       </c>
       <c r="D217">
-        <v>2196400</v>
+        <v>68000</v>
       </c>
       <c r="E217">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="F217">
-        <v>140</v>
+        <v>80</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5355,19 +5670,13 @@
         <v>6</v>
       </c>
       <c r="B218" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="C218" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
       <c r="D218">
-        <v>129000</v>
-      </c>
-      <c r="E218">
-        <v>45</v>
-      </c>
-      <c r="F218">
-        <v>200</v>
+        <v>39010</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5375,13 +5684,19 @@
         <v>6</v>
       </c>
       <c r="B219" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C219" t="s">
-        <v>284</v>
+        <v>302</v>
       </c>
       <c r="D219">
-        <v>79740</v>
+        <v>600000</v>
+      </c>
+      <c r="E219">
+        <v>30</v>
+      </c>
+      <c r="F219">
+        <v>170</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5389,19 +5704,16 @@
         <v>6</v>
       </c>
       <c r="B220" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C220" t="s">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="D220">
-        <v>23900</v>
+        <v>140700</v>
       </c>
       <c r="E220">
-        <v>9</v>
-      </c>
-      <c r="F220">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5409,16 +5721,16 @@
         <v>6</v>
       </c>
       <c r="B221" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="C221" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="D221">
-        <v>64000</v>
+        <v>22340</v>
       </c>
       <c r="E221">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F221">
         <v>90</v>
@@ -5429,13 +5741,13 @@
         <v>6</v>
       </c>
       <c r="B222" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="C222" t="s">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="D222">
-        <v>804080</v>
+        <v>68777</v>
       </c>
       <c r="E222">
         <v>40</v>
@@ -5446,19 +5758,16 @@
         <v>6</v>
       </c>
       <c r="B223" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C223" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="D223">
-        <v>79900</v>
+        <v>71490</v>
       </c>
       <c r="E223">
-        <v>45</v>
-      </c>
-      <c r="F223">
-        <v>90</v>
+        <v>12</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5466,16 +5775,19 @@
         <v>6</v>
       </c>
       <c r="B224" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C224" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="D224">
-        <v>29900</v>
+        <v>230380</v>
       </c>
       <c r="E224">
-        <v>9</v>
+        <v>25</v>
+      </c>
+      <c r="F224">
+        <v>72</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5483,16 +5795,19 @@
         <v>6</v>
       </c>
       <c r="B225" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C225" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="D225">
-        <v>229900</v>
+        <v>93840</v>
       </c>
       <c r="E225">
-        <v>75</v>
+        <v>17</v>
+      </c>
+      <c r="F225">
+        <v>25</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5500,33 +5815,36 @@
         <v>6</v>
       </c>
       <c r="B226" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="C226" t="s">
-        <v>291</v>
+        <v>309</v>
       </c>
       <c r="D226">
-        <v>29310</v>
+        <v>229000</v>
       </c>
       <c r="E226">
         <v>60</v>
       </c>
+      <c r="F226">
+        <v>220</v>
+      </c>
     </row>
     <row r="227" spans="1:6">
       <c r="A227" t="s">
         <v>6</v>
       </c>
       <c r="B227" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C227" t="s">
-        <v>292</v>
+        <v>310</v>
       </c>
       <c r="D227">
-        <v>34190</v>
+        <v>174940</v>
       </c>
       <c r="E227">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5534,16 +5852,19 @@
         <v>6</v>
       </c>
       <c r="B228" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="C228" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="D228">
-        <v>609840</v>
+        <v>85000</v>
       </c>
       <c r="E228">
-        <v>40</v>
+        <v>30</v>
+      </c>
+      <c r="F228">
+        <v>120</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5551,16 +5872,16 @@
         <v>6</v>
       </c>
       <c r="B229" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C229" t="s">
-        <v>294</v>
+        <v>312</v>
       </c>
       <c r="D229">
-        <v>728700</v>
+        <v>77990</v>
       </c>
       <c r="E229">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5568,16 +5889,19 @@
         <v>6</v>
       </c>
       <c r="B230" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C230" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="D230">
-        <v>459080</v>
+        <v>798000</v>
       </c>
       <c r="E230">
-        <v>40</v>
+        <v>60</v>
+      </c>
+      <c r="F230">
+        <v>160</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5585,16 +5909,16 @@
         <v>6</v>
       </c>
       <c r="B231" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="C231" t="s">
-        <v>296</v>
+        <v>314</v>
       </c>
       <c r="D231">
-        <v>35990</v>
-      </c>
-      <c r="E231">
-        <v>10</v>
+        <v>64300</v>
+      </c>
+      <c r="F231">
+        <v>18</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5602,16 +5926,19 @@
         <v>6</v>
       </c>
       <c r="B232" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C232" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="D232">
-        <v>244800</v>
+        <v>693873</v>
       </c>
       <c r="E232">
-        <v>28</v>
+        <v>60</v>
+      </c>
+      <c r="F232">
+        <v>200</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5619,13 +5946,19 @@
         <v>6</v>
       </c>
       <c r="B233" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C233" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="D233">
-        <v>550910</v>
+        <v>217120</v>
+      </c>
+      <c r="E233">
+        <v>40</v>
+      </c>
+      <c r="F233">
+        <v>120</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5633,16 +5966,16 @@
         <v>6</v>
       </c>
       <c r="B234" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="C234" t="s">
-        <v>299</v>
+        <v>317</v>
       </c>
       <c r="D234">
-        <v>569390</v>
+        <v>49800</v>
       </c>
       <c r="E234">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5650,16 +5983,13 @@
         <v>6</v>
       </c>
       <c r="B235" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C235" t="s">
-        <v>300</v>
+        <v>318</v>
       </c>
       <c r="D235">
-        <v>819790</v>
-      </c>
-      <c r="E235">
-        <v>40</v>
+        <v>22000</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5667,13 +5997,16 @@
         <v>6</v>
       </c>
       <c r="B236" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C236" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="D236">
-        <v>799000</v>
+        <v>57590</v>
+      </c>
+      <c r="E236">
+        <v>40</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5684,13 +6017,13 @@
         <v>29</v>
       </c>
       <c r="C237" t="s">
-        <v>302</v>
+        <v>320</v>
       </c>
       <c r="D237">
-        <v>317340</v>
+        <v>214420</v>
       </c>
       <c r="E237">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5698,19 +6031,19 @@
         <v>6</v>
       </c>
       <c r="B238" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C238" t="s">
-        <v>303</v>
+        <v>321</v>
       </c>
       <c r="D238">
-        <v>99900</v>
+        <v>239000</v>
       </c>
       <c r="E238">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F238">
-        <v>130</v>
+        <v>250</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5718,19 +6051,19 @@
         <v>6</v>
       </c>
       <c r="B239" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="C239" t="s">
-        <v>304</v>
+        <v>322</v>
       </c>
       <c r="D239">
-        <v>699893</v>
+        <v>138280</v>
       </c>
       <c r="E239">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F239">
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5738,16 +6071,19 @@
         <v>6</v>
       </c>
       <c r="B240" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="C240" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="D240">
-        <v>35820</v>
+        <v>229900</v>
+      </c>
+      <c r="E240">
+        <v>35</v>
       </c>
       <c r="F240">
-        <v>35</v>
+        <v>80</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5755,13 +6091,19 @@
         <v>6</v>
       </c>
       <c r="B241" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="C241" t="s">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="D241">
-        <v>459990</v>
+        <v>66280</v>
+      </c>
+      <c r="E241">
+        <v>35</v>
+      </c>
+      <c r="F241">
+        <v>90</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5769,19 +6111,19 @@
         <v>6</v>
       </c>
       <c r="B242" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C242" t="s">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="D242">
-        <v>179000</v>
+        <v>57910</v>
       </c>
       <c r="E242">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F242">
-        <v>220</v>
+        <v>86</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -5789,16 +6131,19 @@
         <v>6</v>
       </c>
       <c r="B243" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="C243" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="D243">
-        <v>101000</v>
+        <v>126750</v>
       </c>
       <c r="E243">
-        <v>30</v>
+        <v>20</v>
+      </c>
+      <c r="F243">
+        <v>150</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -5806,16 +6151,19 @@
         <v>6</v>
       </c>
       <c r="B244" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C244" t="s">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="D244">
-        <v>49000</v>
+        <v>184990</v>
       </c>
       <c r="E244">
-        <v>15</v>
+        <v>30</v>
+      </c>
+      <c r="F244">
+        <v>190</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -5823,13 +6171,16 @@
         <v>6</v>
       </c>
       <c r="B245" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C245" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="D245">
-        <v>256780</v>
+        <v>279990</v>
+      </c>
+      <c r="E245">
+        <v>48</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -5837,19 +6188,19 @@
         <v>6</v>
       </c>
       <c r="B246" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C246" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="D246">
-        <v>159000</v>
+        <v>65280</v>
       </c>
       <c r="E246">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F246">
-        <v>220</v>
+        <v>90</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -5857,19 +6208,16 @@
         <v>6</v>
       </c>
       <c r="B247" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="C247" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="D247">
-        <v>901320</v>
+        <v>87720</v>
       </c>
       <c r="E247">
-        <v>80</v>
-      </c>
-      <c r="F247">
-        <v>140</v>
+        <v>20</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -5877,19 +6225,16 @@
         <v>6</v>
       </c>
       <c r="B248" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="C248" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="D248">
-        <v>83100</v>
+        <v>135850</v>
       </c>
       <c r="E248">
-        <v>30</v>
-      </c>
-      <c r="F248">
-        <v>120</v>
+        <v>20</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -5897,19 +6242,19 @@
         <v>6</v>
       </c>
       <c r="B249" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C249" t="s">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="D249">
-        <v>239000</v>
+        <v>248800</v>
       </c>
       <c r="E249">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F249">
-        <v>250</v>
+        <v>260</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -5920,13 +6265,1357 @@
         <v>66</v>
       </c>
       <c r="C250" t="s">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="D250">
-        <v>48800</v>
+        <v>129000</v>
       </c>
       <c r="E250">
+        <v>40</v>
+      </c>
+      <c r="F250">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
+      <c r="A251" t="s">
+        <v>6</v>
+      </c>
+      <c r="B251" t="s">
+        <v>29</v>
+      </c>
+      <c r="C251" t="s">
+        <v>334</v>
+      </c>
+      <c r="D251">
+        <v>69000</v>
+      </c>
+      <c r="E251">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
+      <c r="A252" t="s">
+        <v>6</v>
+      </c>
+      <c r="B252" t="s">
+        <v>13</v>
+      </c>
+      <c r="C252" t="s">
+        <v>335</v>
+      </c>
+      <c r="D252">
+        <v>88990</v>
+      </c>
+      <c r="E252">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
+      <c r="A253" t="s">
+        <v>6</v>
+      </c>
+      <c r="B253" t="s">
+        <v>67</v>
+      </c>
+      <c r="C253" t="s">
+        <v>336</v>
+      </c>
+      <c r="D253">
+        <v>93000</v>
+      </c>
+      <c r="E253">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
+      <c r="A254" t="s">
+        <v>6</v>
+      </c>
+      <c r="B254" t="s">
+        <v>17</v>
+      </c>
+      <c r="C254" t="s">
+        <v>337</v>
+      </c>
+      <c r="D254">
+        <v>128000</v>
+      </c>
+      <c r="E254">
+        <v>35</v>
+      </c>
+      <c r="F254">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
+      <c r="A255" t="s">
+        <v>6</v>
+      </c>
+      <c r="B255" t="s">
+        <v>24</v>
+      </c>
+      <c r="C255" t="s">
+        <v>338</v>
+      </c>
+      <c r="D255">
+        <v>268900</v>
+      </c>
+      <c r="E255">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
+      <c r="A256" t="s">
+        <v>6</v>
+      </c>
+      <c r="B256" t="s">
+        <v>8</v>
+      </c>
+      <c r="C256" t="s">
+        <v>339</v>
+      </c>
+      <c r="D256">
+        <v>652420</v>
+      </c>
+      <c r="E256">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
+      <c r="A257" t="s">
+        <v>6</v>
+      </c>
+      <c r="B257" t="s">
+        <v>13</v>
+      </c>
+      <c r="C257" t="s">
+        <v>340</v>
+      </c>
+      <c r="D257">
+        <v>884060</v>
+      </c>
+      <c r="E257">
+        <v>60</v>
+      </c>
+      <c r="F257">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
+      <c r="A258" t="s">
+        <v>6</v>
+      </c>
+      <c r="B258" t="s">
+        <v>12</v>
+      </c>
+      <c r="C258" t="s">
+        <v>341</v>
+      </c>
+      <c r="D258">
+        <v>456670</v>
+      </c>
+      <c r="E258">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
+      <c r="A259" t="s">
+        <v>6</v>
+      </c>
+      <c r="B259" t="s">
+        <v>15</v>
+      </c>
+      <c r="C259" t="s">
+        <v>342</v>
+      </c>
+      <c r="D259">
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
+      <c r="A260" t="s">
+        <v>6</v>
+      </c>
+      <c r="B260" t="s">
+        <v>68</v>
+      </c>
+      <c r="C260" t="s">
+        <v>343</v>
+      </c>
+      <c r="D260">
+        <v>6060</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
+      <c r="A261" t="s">
+        <v>6</v>
+      </c>
+      <c r="B261" t="s">
+        <v>34</v>
+      </c>
+      <c r="C261" t="s">
+        <v>344</v>
+      </c>
+      <c r="D261">
+        <v>53200</v>
+      </c>
+      <c r="E261">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
+      <c r="A262" t="s">
+        <v>6</v>
+      </c>
+      <c r="B262" t="s">
+        <v>69</v>
+      </c>
+      <c r="C262" t="s">
+        <v>345</v>
+      </c>
+      <c r="D262">
+        <v>358900</v>
+      </c>
+      <c r="E262">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6">
+      <c r="A263" t="s">
+        <v>6</v>
+      </c>
+      <c r="B263" t="s">
+        <v>12</v>
+      </c>
+      <c r="C263" t="s">
+        <v>346</v>
+      </c>
+      <c r="D263">
+        <v>262840</v>
+      </c>
+      <c r="E263">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
+      <c r="A264" t="s">
+        <v>6</v>
+      </c>
+      <c r="B264" t="s">
+        <v>32</v>
+      </c>
+      <c r="C264" t="s">
+        <v>347</v>
+      </c>
+      <c r="D264">
+        <v>23630</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
+      <c r="A265" t="s">
+        <v>6</v>
+      </c>
+      <c r="B265" t="s">
+        <v>9</v>
+      </c>
+      <c r="C265" t="s">
+        <v>348</v>
+      </c>
+      <c r="D265">
+        <v>80910</v>
+      </c>
+      <c r="E265">
         <v>30</v>
+      </c>
+      <c r="F265">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
+      <c r="A266" t="s">
+        <v>6</v>
+      </c>
+      <c r="B266" t="s">
+        <v>9</v>
+      </c>
+      <c r="C266" t="s">
+        <v>349</v>
+      </c>
+      <c r="D266">
+        <v>406080</v>
+      </c>
+      <c r="E266">
+        <v>40</v>
+      </c>
+      <c r="F266">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
+      <c r="A267" t="s">
+        <v>6</v>
+      </c>
+      <c r="B267" t="s">
+        <v>32</v>
+      </c>
+      <c r="C267" t="s">
+        <v>350</v>
+      </c>
+      <c r="D267">
+        <v>65600</v>
+      </c>
+      <c r="E267">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6">
+      <c r="A268" t="s">
+        <v>6</v>
+      </c>
+      <c r="B268" t="s">
+        <v>24</v>
+      </c>
+      <c r="C268" t="s">
+        <v>351</v>
+      </c>
+      <c r="D268">
+        <v>311200</v>
+      </c>
+      <c r="F268">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6">
+      <c r="A269" t="s">
+        <v>6</v>
+      </c>
+      <c r="B269" t="s">
+        <v>12</v>
+      </c>
+      <c r="C269" t="s">
+        <v>352</v>
+      </c>
+      <c r="D269">
+        <v>286900</v>
+      </c>
+      <c r="E269">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6">
+      <c r="A270" t="s">
+        <v>6</v>
+      </c>
+      <c r="B270" t="s">
+        <v>70</v>
+      </c>
+      <c r="C270" t="s">
+        <v>353</v>
+      </c>
+      <c r="D270">
+        <v>189000</v>
+      </c>
+      <c r="E270">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6">
+      <c r="A271" t="s">
+        <v>6</v>
+      </c>
+      <c r="B271" t="s">
+        <v>38</v>
+      </c>
+      <c r="C271" t="s">
+        <v>354</v>
+      </c>
+      <c r="D271">
+        <v>204480</v>
+      </c>
+      <c r="F271">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
+      <c r="A272" t="s">
+        <v>6</v>
+      </c>
+      <c r="B272" t="s">
+        <v>13</v>
+      </c>
+      <c r="C272" t="s">
+        <v>355</v>
+      </c>
+      <c r="D272">
+        <v>821510</v>
+      </c>
+      <c r="E272">
+        <v>80</v>
+      </c>
+      <c r="F272">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6">
+      <c r="A273" t="s">
+        <v>6</v>
+      </c>
+      <c r="B273" t="s">
+        <v>14</v>
+      </c>
+      <c r="C273" t="s">
+        <v>356</v>
+      </c>
+      <c r="D273">
+        <v>120870</v>
+      </c>
+      <c r="E273">
+        <v>30</v>
+      </c>
+      <c r="F273">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6">
+      <c r="A274" t="s">
+        <v>6</v>
+      </c>
+      <c r="B274" t="s">
+        <v>14</v>
+      </c>
+      <c r="C274" t="s">
+        <v>357</v>
+      </c>
+      <c r="D274">
+        <v>129000</v>
+      </c>
+      <c r="E274">
+        <v>35</v>
+      </c>
+      <c r="F274">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6">
+      <c r="A275" t="s">
+        <v>6</v>
+      </c>
+      <c r="B275" t="s">
+        <v>71</v>
+      </c>
+      <c r="C275" t="s">
+        <v>358</v>
+      </c>
+      <c r="D275">
+        <v>23200</v>
+      </c>
+      <c r="E275">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6">
+      <c r="A276" t="s">
+        <v>6</v>
+      </c>
+      <c r="B276" t="s">
+        <v>44</v>
+      </c>
+      <c r="C276" t="s">
+        <v>359</v>
+      </c>
+      <c r="D276">
+        <v>56900</v>
+      </c>
+      <c r="E276">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6">
+      <c r="A277" t="s">
+        <v>6</v>
+      </c>
+      <c r="B277" t="s">
+        <v>72</v>
+      </c>
+      <c r="C277" t="s">
+        <v>360</v>
+      </c>
+      <c r="D277">
+        <v>69000</v>
+      </c>
+      <c r="E277">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6">
+      <c r="A278" t="s">
+        <v>6</v>
+      </c>
+      <c r="B278" t="s">
+        <v>73</v>
+      </c>
+      <c r="C278" t="s">
+        <v>361</v>
+      </c>
+      <c r="D278">
+        <v>15750</v>
+      </c>
+      <c r="E278">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6">
+      <c r="A279" t="s">
+        <v>6</v>
+      </c>
+      <c r="B279" t="s">
+        <v>17</v>
+      </c>
+      <c r="C279" t="s">
+        <v>362</v>
+      </c>
+      <c r="D279">
+        <v>168000</v>
+      </c>
+      <c r="E279">
+        <v>40</v>
+      </c>
+      <c r="F279">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6">
+      <c r="A280" t="s">
+        <v>6</v>
+      </c>
+      <c r="B280" t="s">
+        <v>74</v>
+      </c>
+      <c r="C280" t="s">
+        <v>363</v>
+      </c>
+      <c r="D280">
+        <v>44590</v>
+      </c>
+      <c r="E280">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6">
+      <c r="A281" t="s">
+        <v>6</v>
+      </c>
+      <c r="B281" t="s">
+        <v>19</v>
+      </c>
+      <c r="C281" t="s">
+        <v>364</v>
+      </c>
+      <c r="D281">
+        <v>21680</v>
+      </c>
+      <c r="E281">
+        <v>10</v>
+      </c>
+      <c r="F281">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6">
+      <c r="A282" t="s">
+        <v>6</v>
+      </c>
+      <c r="B282" t="s">
+        <v>75</v>
+      </c>
+      <c r="C282" t="s">
+        <v>365</v>
+      </c>
+      <c r="D282">
+        <v>27210</v>
+      </c>
+      <c r="E282">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6">
+      <c r="A283" t="s">
+        <v>6</v>
+      </c>
+      <c r="B283" t="s">
+        <v>76</v>
+      </c>
+      <c r="C283" t="s">
+        <v>366</v>
+      </c>
+      <c r="D283">
+        <v>100280</v>
+      </c>
+      <c r="E283">
+        <v>25</v>
+      </c>
+      <c r="F283">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6">
+      <c r="A284" t="s">
+        <v>6</v>
+      </c>
+      <c r="B284" t="s">
+        <v>18</v>
+      </c>
+      <c r="C284" t="s">
+        <v>367</v>
+      </c>
+      <c r="D284">
+        <v>78980</v>
+      </c>
+      <c r="E284">
+        <v>11</v>
+      </c>
+      <c r="F284">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6">
+      <c r="A285" t="s">
+        <v>6</v>
+      </c>
+      <c r="B285" t="s">
+        <v>15</v>
+      </c>
+      <c r="C285" t="s">
+        <v>368</v>
+      </c>
+      <c r="D285">
+        <v>40480</v>
+      </c>
+      <c r="F285">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6">
+      <c r="A286" t="s">
+        <v>6</v>
+      </c>
+      <c r="B286" t="s">
+        <v>18</v>
+      </c>
+      <c r="C286" t="s">
+        <v>369</v>
+      </c>
+      <c r="D286">
+        <v>118170</v>
+      </c>
+      <c r="E286">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6">
+      <c r="A287" t="s">
+        <v>6</v>
+      </c>
+      <c r="B287" t="s">
+        <v>36</v>
+      </c>
+      <c r="C287" t="s">
+        <v>370</v>
+      </c>
+      <c r="D287">
+        <v>434750</v>
+      </c>
+      <c r="E287">
+        <v>40</v>
+      </c>
+      <c r="F287">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6">
+      <c r="A288" t="s">
+        <v>6</v>
+      </c>
+      <c r="B288" t="s">
+        <v>38</v>
+      </c>
+      <c r="C288" t="s">
+        <v>371</v>
+      </c>
+      <c r="D288">
+        <v>25000</v>
+      </c>
+      <c r="E288">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6">
+      <c r="A289" t="s">
+        <v>6</v>
+      </c>
+      <c r="B289" t="s">
+        <v>77</v>
+      </c>
+      <c r="C289" t="s">
+        <v>372</v>
+      </c>
+      <c r="D289">
+        <v>143040</v>
+      </c>
+      <c r="E289">
+        <v>30</v>
+      </c>
+      <c r="F289">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6">
+      <c r="A290" t="s">
+        <v>6</v>
+      </c>
+      <c r="B290" t="s">
+        <v>78</v>
+      </c>
+      <c r="C290" t="s">
+        <v>373</v>
+      </c>
+      <c r="D290">
+        <v>84080</v>
+      </c>
+      <c r="E290">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6">
+      <c r="A291" t="s">
+        <v>6</v>
+      </c>
+      <c r="B291" t="s">
+        <v>13</v>
+      </c>
+      <c r="C291" t="s">
+        <v>374</v>
+      </c>
+      <c r="D291">
+        <v>724060</v>
+      </c>
+      <c r="E291">
+        <v>40</v>
+      </c>
+      <c r="F291">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6">
+      <c r="A292" t="s">
+        <v>6</v>
+      </c>
+      <c r="B292" t="s">
+        <v>69</v>
+      </c>
+      <c r="C292" t="s">
+        <v>375</v>
+      </c>
+      <c r="D292">
+        <v>50150</v>
+      </c>
+      <c r="E292">
+        <v>9</v>
+      </c>
+      <c r="F292">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6">
+      <c r="A293" t="s">
+        <v>6</v>
+      </c>
+      <c r="B293" t="s">
+        <v>15</v>
+      </c>
+      <c r="C293" t="s">
+        <v>376</v>
+      </c>
+      <c r="D293">
+        <v>32760</v>
+      </c>
+      <c r="E293">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6">
+      <c r="A294" t="s">
+        <v>6</v>
+      </c>
+      <c r="B294" t="s">
+        <v>79</v>
+      </c>
+      <c r="C294" t="s">
+        <v>377</v>
+      </c>
+      <c r="D294">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6">
+      <c r="A295" t="s">
+        <v>6</v>
+      </c>
+      <c r="B295" t="s">
+        <v>13</v>
+      </c>
+      <c r="C295" t="s">
+        <v>378</v>
+      </c>
+      <c r="D295">
+        <v>786720</v>
+      </c>
+      <c r="E295">
+        <v>120</v>
+      </c>
+      <c r="F295">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6">
+      <c r="A296" t="s">
+        <v>6</v>
+      </c>
+      <c r="B296" t="s">
+        <v>19</v>
+      </c>
+      <c r="C296" t="s">
+        <v>379</v>
+      </c>
+      <c r="D296">
+        <v>72790</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6">
+      <c r="A297" t="s">
+        <v>6</v>
+      </c>
+      <c r="B297" t="s">
+        <v>8</v>
+      </c>
+      <c r="C297" t="s">
+        <v>380</v>
+      </c>
+      <c r="D297">
+        <v>890890</v>
+      </c>
+      <c r="E297">
+        <v>60</v>
+      </c>
+      <c r="F297">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6">
+      <c r="A298" t="s">
+        <v>6</v>
+      </c>
+      <c r="B298" t="s">
+        <v>29</v>
+      </c>
+      <c r="C298" t="s">
+        <v>381</v>
+      </c>
+      <c r="D298">
+        <v>129000</v>
+      </c>
+      <c r="E298">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6">
+      <c r="A299" t="s">
+        <v>6</v>
+      </c>
+      <c r="B299" t="s">
+        <v>7</v>
+      </c>
+      <c r="C299" t="s">
+        <v>382</v>
+      </c>
+      <c r="D299">
+        <v>2364830</v>
+      </c>
+      <c r="E299">
+        <v>90</v>
+      </c>
+      <c r="F299">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6">
+      <c r="A300" t="s">
+        <v>6</v>
+      </c>
+      <c r="B300" t="s">
+        <v>9</v>
+      </c>
+      <c r="C300" t="s">
+        <v>383</v>
+      </c>
+      <c r="D300">
+        <v>28500</v>
+      </c>
+      <c r="E300">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6">
+      <c r="A301" t="s">
+        <v>6</v>
+      </c>
+      <c r="B301" t="s">
+        <v>69</v>
+      </c>
+      <c r="C301" t="s">
+        <v>384</v>
+      </c>
+      <c r="D301">
+        <v>506500</v>
+      </c>
+      <c r="E301">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6">
+      <c r="A302" t="s">
+        <v>6</v>
+      </c>
+      <c r="B302" t="s">
+        <v>69</v>
+      </c>
+      <c r="C302" t="s">
+        <v>385</v>
+      </c>
+      <c r="D302">
+        <v>611980</v>
+      </c>
+      <c r="E302">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6">
+      <c r="A303" t="s">
+        <v>6</v>
+      </c>
+      <c r="B303" t="s">
+        <v>8</v>
+      </c>
+      <c r="C303" t="s">
+        <v>386</v>
+      </c>
+      <c r="D303">
+        <v>669680</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6">
+      <c r="A304" t="s">
+        <v>6</v>
+      </c>
+      <c r="B304" t="s">
+        <v>41</v>
+      </c>
+      <c r="C304" t="s">
+        <v>387</v>
+      </c>
+      <c r="D304">
+        <v>155460</v>
+      </c>
+      <c r="E304">
+        <v>35</v>
+      </c>
+      <c r="F304">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6">
+      <c r="A305" t="s">
+        <v>6</v>
+      </c>
+      <c r="B305" t="s">
+        <v>12</v>
+      </c>
+      <c r="C305" t="s">
+        <v>388</v>
+      </c>
+      <c r="D305">
+        <v>496560</v>
+      </c>
+      <c r="E305">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6">
+      <c r="A306" t="s">
+        <v>6</v>
+      </c>
+      <c r="B306" t="s">
+        <v>57</v>
+      </c>
+      <c r="C306" t="s">
+        <v>389</v>
+      </c>
+      <c r="D306">
+        <v>42010</v>
+      </c>
+      <c r="E306">
+        <v>15</v>
+      </c>
+      <c r="F306">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6">
+      <c r="A307" t="s">
+        <v>6</v>
+      </c>
+      <c r="B307" t="s">
+        <v>17</v>
+      </c>
+      <c r="C307" t="s">
+        <v>390</v>
+      </c>
+      <c r="D307">
+        <v>190000</v>
+      </c>
+      <c r="E307">
+        <v>40</v>
+      </c>
+      <c r="F307">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6">
+      <c r="A308" t="s">
+        <v>6</v>
+      </c>
+      <c r="B308" t="s">
+        <v>80</v>
+      </c>
+      <c r="C308" t="s">
+        <v>391</v>
+      </c>
+      <c r="D308">
+        <v>52910</v>
+      </c>
+      <c r="E308">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6">
+      <c r="A309" t="s">
+        <v>6</v>
+      </c>
+      <c r="B309" t="s">
+        <v>13</v>
+      </c>
+      <c r="C309" t="s">
+        <v>392</v>
+      </c>
+      <c r="D309">
+        <v>985470</v>
+      </c>
+      <c r="E309">
+        <v>120</v>
+      </c>
+      <c r="F309">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6">
+      <c r="A310" t="s">
+        <v>6</v>
+      </c>
+      <c r="B310" t="s">
+        <v>81</v>
+      </c>
+      <c r="C310" t="s">
+        <v>393</v>
+      </c>
+      <c r="D310">
+        <v>143090</v>
+      </c>
+      <c r="E310">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6">
+      <c r="A311" t="s">
+        <v>6</v>
+      </c>
+      <c r="B311" t="s">
+        <v>13</v>
+      </c>
+      <c r="C311" t="s">
+        <v>394</v>
+      </c>
+      <c r="D311">
+        <v>1067000</v>
+      </c>
+      <c r="E311">
+        <v>120</v>
+      </c>
+      <c r="F311">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6">
+      <c r="A312" t="s">
+        <v>6</v>
+      </c>
+      <c r="B312" t="s">
+        <v>8</v>
+      </c>
+      <c r="C312" t="s">
+        <v>395</v>
+      </c>
+      <c r="D312">
+        <v>999990</v>
+      </c>
+      <c r="E312">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6">
+      <c r="A313" t="s">
+        <v>6</v>
+      </c>
+      <c r="B313" t="s">
+        <v>14</v>
+      </c>
+      <c r="C313" t="s">
+        <v>396</v>
+      </c>
+      <c r="D313">
+        <v>167310</v>
+      </c>
+      <c r="E313">
+        <v>30</v>
+      </c>
+      <c r="F313">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6">
+      <c r="A314" t="s">
+        <v>6</v>
+      </c>
+      <c r="B314" t="s">
+        <v>82</v>
+      </c>
+      <c r="C314" t="s">
+        <v>397</v>
+      </c>
+      <c r="D314">
+        <v>37000</v>
+      </c>
+      <c r="E314">
+        <v>20</v>
+      </c>
+      <c r="F314">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6">
+      <c r="A315" t="s">
+        <v>6</v>
+      </c>
+      <c r="B315" t="s">
+        <v>29</v>
+      </c>
+      <c r="C315" t="s">
+        <v>398</v>
+      </c>
+      <c r="D315">
+        <v>249900</v>
+      </c>
+      <c r="E315">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6">
+      <c r="A316" t="s">
+        <v>6</v>
+      </c>
+      <c r="B316" t="s">
+        <v>15</v>
+      </c>
+      <c r="C316" t="s">
+        <v>399</v>
+      </c>
+      <c r="D316">
+        <v>32900</v>
+      </c>
+      <c r="E316">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6">
+      <c r="A317" t="s">
+        <v>6</v>
+      </c>
+      <c r="B317" t="s">
+        <v>58</v>
+      </c>
+      <c r="C317" t="s">
+        <v>400</v>
+      </c>
+      <c r="D317">
+        <v>27710</v>
+      </c>
+      <c r="E317">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6">
+      <c r="A318" t="s">
+        <v>6</v>
+      </c>
+      <c r="B318" t="s">
+        <v>83</v>
+      </c>
+      <c r="C318" t="s">
+        <v>401</v>
+      </c>
+      <c r="D318">
+        <v>109760</v>
+      </c>
+      <c r="E318">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6">
+      <c r="A319" t="s">
+        <v>6</v>
+      </c>
+      <c r="B319" t="s">
+        <v>12</v>
+      </c>
+      <c r="C319" t="s">
+        <v>402</v>
+      </c>
+      <c r="D319">
+        <v>436610</v>
+      </c>
+      <c r="E319">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6">
+      <c r="A320" t="s">
+        <v>6</v>
+      </c>
+      <c r="B320" t="s">
+        <v>8</v>
+      </c>
+      <c r="C320" t="s">
+        <v>403</v>
+      </c>
+      <c r="D320">
+        <v>552000</v>
+      </c>
+      <c r="E320">
+        <v>40</v>
+      </c>
+      <c r="F320">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6">
+      <c r="A321" t="s">
+        <v>6</v>
+      </c>
+      <c r="B321" t="s">
+        <v>15</v>
+      </c>
+      <c r="C321" t="s">
+        <v>404</v>
+      </c>
+      <c r="D321">
+        <v>103550</v>
+      </c>
+      <c r="E321">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6">
+      <c r="A322" t="s">
+        <v>6</v>
+      </c>
+      <c r="B322" t="s">
+        <v>18</v>
+      </c>
+      <c r="C322" t="s">
+        <v>405</v>
+      </c>
+      <c r="D322">
+        <v>87390</v>
+      </c>
+      <c r="E322">
+        <v>11</v>
+      </c>
+      <c r="F322">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6">
+      <c r="A323" t="s">
+        <v>6</v>
+      </c>
+      <c r="B323" t="s">
+        <v>84</v>
+      </c>
+      <c r="C323" t="s">
+        <v>406</v>
+      </c>
+      <c r="D323">
+        <v>126410</v>
+      </c>
+      <c r="E323">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6">
+      <c r="A324" t="s">
+        <v>6</v>
+      </c>
+      <c r="B324" t="s">
+        <v>47</v>
+      </c>
+      <c r="C324" t="s">
+        <v>407</v>
+      </c>
+      <c r="D324">
+        <v>155820</v>
+      </c>
+      <c r="E324">
+        <v>40</v>
+      </c>
+      <c r="F324">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6">
+      <c r="A325" t="s">
+        <v>6</v>
+      </c>
+      <c r="B325" t="s">
+        <v>59</v>
+      </c>
+      <c r="C325" t="s">
+        <v>408</v>
+      </c>
+      <c r="D325">
+        <v>323470</v>
+      </c>
+      <c r="E325">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
